--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,24 +705,27 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>104500</v>
+        <v>136900</v>
       </c>
       <c r="E8" s="3">
-        <v>40100</v>
+        <v>104700</v>
       </c>
       <c r="F8" s="3">
+        <v>40200</v>
+      </c>
+      <c r="G8" s="3">
         <v>11200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -732,24 +735,27 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>32100</v>
+        <v>36300</v>
       </c>
       <c r="E9" s="3">
+        <v>32200</v>
+      </c>
+      <c r="F9" s="3">
         <v>14100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,24 +765,27 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>72300</v>
+        <v>100600</v>
       </c>
       <c r="E10" s="3">
+        <v>72500</v>
+      </c>
+      <c r="F10" s="3">
         <v>26100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,23 +812,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E12" s="3">
         <v>19500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7900</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,9 +899,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,23 +943,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>77600</v>
+        <v>112700</v>
       </c>
       <c r="E17" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F17" s="3">
         <v>39100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25500</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -944,24 +970,27 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E18" s="3">
         <v>26900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,23 +1017,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>26900</v>
+        <v>25100</v>
       </c>
       <c r="E21" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>-14000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,24 +1104,27 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E23" s="3">
         <v>25900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14400</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,24 +1134,27 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>8000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,24 +1194,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17800</v>
+        <v>21400</v>
       </c>
       <c r="E26" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12700</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,24 +1224,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,24 +1374,27 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,24 +1404,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,24 +1464,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1560,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1543800</v>
+        <v>1922800</v>
       </c>
       <c r="E41" s="3">
-        <v>972600</v>
+        <v>1546600</v>
       </c>
       <c r="F41" s="3">
-        <v>453900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>974300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>454700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>99400</v>
+        <v>231500</v>
       </c>
       <c r="E43" s="3">
-        <v>50800</v>
+        <v>99500</v>
       </c>
       <c r="F43" s="3">
-        <v>104800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>50900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>105000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,24 +1677,27 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1609,9 +1707,12 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1636,24 +1737,27 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>413600</v>
+        <v>561300</v>
       </c>
       <c r="E47" s="3">
-        <v>375200</v>
+        <v>414300</v>
       </c>
       <c r="F47" s="3">
+        <v>375900</v>
+      </c>
+      <c r="G47" s="3">
         <v>17000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,24 +1767,27 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,14 +1797,17 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
@@ -1705,8 +1815,8 @@
       <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,24 +1887,27 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2068700</v>
+        <v>2761000</v>
       </c>
       <c r="E54" s="3">
-        <v>1406900</v>
+        <v>2072400</v>
       </c>
       <c r="F54" s="3">
-        <v>581800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>1409400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>582800</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,22 +2008,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1703600</v>
+        <v>2183500</v>
       </c>
       <c r="E57" s="3">
-        <v>1076100</v>
+        <v>1706700</v>
       </c>
       <c r="F57" s="3">
-        <v>534800</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>1078000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>535700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1905,24 +2035,27 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>203000</v>
+        <v>189600</v>
       </c>
       <c r="E58" s="3">
-        <v>198700</v>
+        <v>203400</v>
       </c>
       <c r="F58" s="3">
+        <v>199000</v>
+      </c>
+      <c r="G58" s="3">
         <v>20800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,24 +2065,27 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E59" s="3">
         <v>18100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,9 +2095,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -1999,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>4100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2013,9 +2155,12 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1927000</v>
+        <v>2432200</v>
       </c>
       <c r="E66" s="3">
-        <v>1284500</v>
+        <v>1930500</v>
       </c>
       <c r="F66" s="3">
-        <v>563900</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>1286800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>564900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,23 +2379,26 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>161000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>152400</v>
+        <v>161300</v>
       </c>
       <c r="F70" s="3">
-        <v>42400</v>
+        <v>152700</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>42500</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2439,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19200</v>
       </c>
-      <c r="E72" s="3">
-        <v>-29700</v>
-      </c>
       <c r="F72" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-29800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-24200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2559,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>328800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-19300</v>
       </c>
-      <c r="E76" s="3">
-        <v>-30000</v>
-      </c>
       <c r="F76" s="3">
-        <v>-24500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-30100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-24600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,24 +2654,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,23 +2701,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>575700</v>
+        <v>254000</v>
       </c>
       <c r="E89" s="3">
-        <v>238900</v>
+        <v>576600</v>
       </c>
       <c r="F89" s="3">
-        <v>180000</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>239300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>180300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,23 +2925,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,24 +3012,27 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,24 +3176,27 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E100" s="3">
         <v>4600</v>
       </c>
-      <c r="E100" s="3">
-        <v>277700</v>
-      </c>
       <c r="F100" s="3">
+        <v>278100</v>
+      </c>
+      <c r="G100" s="3">
         <v>19000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,23 +3206,26 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2800</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -2988,23 +3236,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>571200</v>
+        <v>376200</v>
       </c>
       <c r="E102" s="3">
-        <v>518700</v>
+        <v>572100</v>
       </c>
       <c r="F102" s="3">
-        <v>198200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>519500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>198500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>136900</v>
+        <v>137000</v>
       </c>
       <c r="E8" s="3">
         <v>104700</v>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>33800</v>
+        <v>33900</v>
       </c>
       <c r="E12" s="3">
         <v>19500</v>
@@ -828,7 +828,7 @@
         <v>12300</v>
       </c>
       <c r="G12" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -953,7 +953,7 @@
         <v>112700</v>
       </c>
       <c r="E17" s="3">
-        <v>77700</v>
+        <v>77800</v>
       </c>
       <c r="F17" s="3">
         <v>39100</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="E18" s="3">
         <v>26900</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1922800</v>
+        <v>1923000</v>
       </c>
       <c r="E41" s="3">
-        <v>1546600</v>
+        <v>1546700</v>
       </c>
       <c r="F41" s="3">
-        <v>974300</v>
+        <v>974400</v>
       </c>
       <c r="G41" s="3">
         <v>454700</v>
@@ -1750,7 +1750,7 @@
         <v>561300</v>
       </c>
       <c r="E47" s="3">
-        <v>414300</v>
+        <v>414400</v>
       </c>
       <c r="F47" s="3">
         <v>375900</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2761000</v>
+        <v>2761200</v>
       </c>
       <c r="E54" s="3">
-        <v>2072400</v>
+        <v>2072600</v>
       </c>
       <c r="F54" s="3">
-        <v>1409400</v>
+        <v>1409500</v>
       </c>
       <c r="G54" s="3">
-        <v>582800</v>
+        <v>582900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2183500</v>
+        <v>2183700</v>
       </c>
       <c r="E57" s="3">
-        <v>1706700</v>
+        <v>1706800</v>
       </c>
       <c r="F57" s="3">
-        <v>1078000</v>
+        <v>1078100</v>
       </c>
       <c r="G57" s="3">
-        <v>535700</v>
+        <v>535800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2432200</v>
+        <v>2432400</v>
       </c>
       <c r="E66" s="3">
-        <v>1930500</v>
+        <v>1930600</v>
       </c>
       <c r="F66" s="3">
-        <v>1286800</v>
+        <v>1286900</v>
       </c>
       <c r="G66" s="3">
-        <v>564900</v>
+        <v>565000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2575,7 +2575,7 @@
         <v>-19300</v>
       </c>
       <c r="F76" s="3">
-        <v>-30100</v>
+        <v>-30000</v>
       </c>
       <c r="G76" s="3">
         <v>-24600</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>254000</v>
+        <v>254100</v>
       </c>
       <c r="E89" s="3">
-        <v>576600</v>
+        <v>576800</v>
       </c>
       <c r="F89" s="3">
-        <v>239300</v>
+        <v>239400</v>
       </c>
       <c r="G89" s="3">
         <v>180300</v>
@@ -3022,7 +3022,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="E94" s="3">
         <v>-10100</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>148500</v>
+        <v>148600</v>
       </c>
       <c r="E100" s="3">
         <v>4600</v>
       </c>
       <c r="F100" s="3">
-        <v>278100</v>
+        <v>278200</v>
       </c>
       <c r="G100" s="3">
         <v>19000</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>376200</v>
+        <v>376300</v>
       </c>
       <c r="E102" s="3">
-        <v>572100</v>
+        <v>572300</v>
       </c>
       <c r="F102" s="3">
-        <v>519500</v>
+        <v>519700</v>
       </c>
       <c r="G102" s="3">
-        <v>198500</v>
+        <v>198600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>33900</v>
+        <v>33800</v>
       </c>
       <c r="E12" s="3">
         <v>19500</v>
@@ -953,7 +953,7 @@
         <v>112700</v>
       </c>
       <c r="E17" s="3">
-        <v>77800</v>
+        <v>77700</v>
       </c>
       <c r="F17" s="3">
         <v>39100</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="E18" s="3">
         <v>26900</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1923000</v>
+        <v>1922800</v>
       </c>
       <c r="E41" s="3">
-        <v>1546700</v>
+        <v>1546600</v>
       </c>
       <c r="F41" s="3">
-        <v>974400</v>
+        <v>974300</v>
       </c>
       <c r="G41" s="3">
         <v>454700</v>
@@ -1750,7 +1750,7 @@
         <v>561300</v>
       </c>
       <c r="E47" s="3">
-        <v>414400</v>
+        <v>414300</v>
       </c>
       <c r="F47" s="3">
         <v>375900</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2761200</v>
+        <v>2761000</v>
       </c>
       <c r="E54" s="3">
-        <v>2072600</v>
+        <v>2072400</v>
       </c>
       <c r="F54" s="3">
-        <v>1409500</v>
+        <v>1409400</v>
       </c>
       <c r="G54" s="3">
-        <v>582900</v>
+        <v>582800</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2183700</v>
+        <v>2183500</v>
       </c>
       <c r="E57" s="3">
-        <v>1706800</v>
+        <v>1706700</v>
       </c>
       <c r="F57" s="3">
-        <v>1078100</v>
+        <v>1078000</v>
       </c>
       <c r="G57" s="3">
-        <v>535800</v>
+        <v>535700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2432400</v>
+        <v>2432200</v>
       </c>
       <c r="E66" s="3">
-        <v>1930600</v>
+        <v>1930500</v>
       </c>
       <c r="F66" s="3">
-        <v>1286900</v>
+        <v>1286800</v>
       </c>
       <c r="G66" s="3">
-        <v>565000</v>
+        <v>564900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2575,7 +2575,7 @@
         <v>-19300</v>
       </c>
       <c r="F76" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="G76" s="3">
         <v>-24600</v>
@@ -2891,7 +2891,7 @@
         <v>254100</v>
       </c>
       <c r="E89" s="3">
-        <v>576800</v>
+        <v>576700</v>
       </c>
       <c r="F89" s="3">
         <v>239400</v>
@@ -3192,7 +3192,7 @@
         <v>4600</v>
       </c>
       <c r="F100" s="3">
-        <v>278200</v>
+        <v>278100</v>
       </c>
       <c r="G100" s="3">
         <v>19000</v>
@@ -3249,10 +3249,10 @@
         <v>376300</v>
       </c>
       <c r="E102" s="3">
-        <v>572300</v>
+        <v>572200</v>
       </c>
       <c r="F102" s="3">
-        <v>519700</v>
+        <v>519600</v>
       </c>
       <c r="G102" s="3">
         <v>198600</v>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>137000</v>
+        <v>136700</v>
       </c>
       <c r="E8" s="3">
-        <v>104700</v>
+        <v>104400</v>
       </c>
       <c r="F8" s="3">
-        <v>40200</v>
+        <v>40100</v>
       </c>
       <c r="G8" s="3">
         <v>11200</v>
@@ -748,10 +748,10 @@
         <v>36300</v>
       </c>
       <c r="E9" s="3">
-        <v>32200</v>
+        <v>32100</v>
       </c>
       <c r="F9" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="G9" s="3">
         <v>5800</v>
@@ -775,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100600</v>
+        <v>100400</v>
       </c>
       <c r="E10" s="3">
-        <v>72500</v>
+        <v>72300</v>
       </c>
       <c r="F10" s="3">
         <v>26100</v>
@@ -828,7 +828,7 @@
         <v>12300</v>
       </c>
       <c r="G12" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>112700</v>
+        <v>112500</v>
       </c>
       <c r="E17" s="3">
-        <v>77700</v>
+        <v>77600</v>
       </c>
       <c r="F17" s="3">
         <v>39100</v>
       </c>
       <c r="G17" s="3">
-        <v>25500</v>
+        <v>25400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -989,7 +989,7 @@
         <v>1100</v>
       </c>
       <c r="G18" s="3">
-        <v>-14300</v>
+        <v>-14200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>25100</v>
+        <v>25000</v>
       </c>
       <c r="E21" s="3">
-        <v>27000</v>
+        <v>26900</v>
       </c>
       <c r="F21" s="3">
         <v>1000</v>
       </c>
       <c r="G21" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,10 +1114,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23000</v>
+        <v>22900</v>
       </c>
       <c r="E23" s="3">
-        <v>25900</v>
+        <v>25800</v>
       </c>
       <c r="F23" s="3">
         <v>400</v>
@@ -1204,10 +1204,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21400</v>
+        <v>21300</v>
       </c>
       <c r="E26" s="3">
-        <v>17900</v>
+        <v>17800</v>
       </c>
       <c r="F26" s="3">
         <v>-1000</v>
@@ -1234,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18500</v>
+        <v>18400</v>
       </c>
       <c r="E27" s="3">
         <v>4800</v>
@@ -1414,7 +1414,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18500</v>
+        <v>18400</v>
       </c>
       <c r="E33" s="3">
         <v>4800</v>
@@ -1474,7 +1474,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18500</v>
+        <v>18400</v>
       </c>
       <c r="E35" s="3">
         <v>4800</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1922800</v>
+        <v>1918500</v>
       </c>
       <c r="E41" s="3">
-        <v>1546600</v>
+        <v>1543100</v>
       </c>
       <c r="F41" s="3">
-        <v>974300</v>
+        <v>972100</v>
       </c>
       <c r="G41" s="3">
-        <v>454700</v>
+        <v>453700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>231500</v>
+        <v>231000</v>
       </c>
       <c r="E43" s="3">
-        <v>99500</v>
+        <v>99300</v>
       </c>
       <c r="F43" s="3">
-        <v>50900</v>
+        <v>50800</v>
       </c>
       <c r="G43" s="3">
-        <v>105000</v>
+        <v>104800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>561300</v>
+        <v>560000</v>
       </c>
       <c r="E47" s="3">
-        <v>414300</v>
+        <v>413400</v>
       </c>
       <c r="F47" s="3">
-        <v>375900</v>
+        <v>375000</v>
       </c>
       <c r="G47" s="3">
         <v>17000</v>
@@ -1777,7 +1777,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36000</v>
+        <v>35900</v>
       </c>
       <c r="E48" s="3">
         <v>2900</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2761000</v>
+        <v>2754800</v>
       </c>
       <c r="E54" s="3">
-        <v>2072400</v>
+        <v>2067800</v>
       </c>
       <c r="F54" s="3">
-        <v>1409400</v>
+        <v>1406200</v>
       </c>
       <c r="G54" s="3">
-        <v>582800</v>
+        <v>581500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2183500</v>
+        <v>2178600</v>
       </c>
       <c r="E57" s="3">
-        <v>1706700</v>
+        <v>1702800</v>
       </c>
       <c r="F57" s="3">
-        <v>1078000</v>
+        <v>1075600</v>
       </c>
       <c r="G57" s="3">
-        <v>535700</v>
+        <v>534500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>189600</v>
+        <v>189100</v>
       </c>
       <c r="E58" s="3">
-        <v>203400</v>
+        <v>202900</v>
       </c>
       <c r="F58" s="3">
-        <v>199000</v>
+        <v>198600</v>
       </c>
       <c r="G58" s="3">
-        <v>20800</v>
+        <v>20700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,7 +2075,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56100</v>
+        <v>56000</v>
       </c>
       <c r="E59" s="3">
         <v>18100</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2432200</v>
+        <v>2426700</v>
       </c>
       <c r="E66" s="3">
-        <v>1930500</v>
+        <v>1926100</v>
       </c>
       <c r="F66" s="3">
-        <v>1286800</v>
+        <v>1283900</v>
       </c>
       <c r="G66" s="3">
-        <v>564900</v>
+        <v>563600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>161300</v>
+        <v>161000</v>
       </c>
       <c r="F70" s="3">
-        <v>152700</v>
+        <v>152300</v>
       </c>
       <c r="G70" s="3">
-        <v>42500</v>
+        <v>42400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>-19200</v>
       </c>
       <c r="F72" s="3">
-        <v>-29800</v>
+        <v>-29700</v>
       </c>
       <c r="G72" s="3">
-        <v>-24200</v>
+        <v>-24100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>328800</v>
+        <v>328100</v>
       </c>
       <c r="E76" s="3">
-        <v>-19300</v>
+        <v>-19400</v>
       </c>
       <c r="F76" s="3">
-        <v>-30100</v>
+        <v>-29900</v>
       </c>
       <c r="G76" s="3">
-        <v>-24600</v>
+        <v>-24500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,7 +2664,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18500</v>
+        <v>18400</v>
       </c>
       <c r="E81" s="3">
         <v>4800</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>254100</v>
+        <v>253500</v>
       </c>
       <c r="E89" s="3">
-        <v>576700</v>
+        <v>575400</v>
       </c>
       <c r="F89" s="3">
-        <v>239400</v>
+        <v>238800</v>
       </c>
       <c r="G89" s="3">
-        <v>180300</v>
+        <v>179900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,7 +2932,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15300</v>
+        <v>-15200</v>
       </c>
       <c r="E91" s="3">
         <v>-2400</v>
@@ -3022,10 +3022,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20700</v>
+        <v>-20600</v>
       </c>
       <c r="E94" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="F94" s="3">
         <v>-700</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>148600</v>
+        <v>148200</v>
       </c>
       <c r="E100" s="3">
         <v>4600</v>
       </c>
       <c r="F100" s="3">
-        <v>278100</v>
+        <v>277500</v>
       </c>
       <c r="G100" s="3">
         <v>19000</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="E101" s="3">
         <v>1000</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>376300</v>
+        <v>375400</v>
       </c>
       <c r="E102" s="3">
-        <v>572200</v>
+        <v>571000</v>
       </c>
       <c r="F102" s="3">
-        <v>519600</v>
+        <v>518500</v>
       </c>
       <c r="G102" s="3">
-        <v>198600</v>
+        <v>198100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,27 +708,30 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>136700</v>
+        <v>426500</v>
       </c>
       <c r="E8" s="3">
-        <v>104400</v>
+        <v>136800</v>
       </c>
       <c r="F8" s="3">
-        <v>40100</v>
+        <v>104500</v>
       </c>
       <c r="G8" s="3">
+        <v>40200</v>
+      </c>
+      <c r="H8" s="3">
         <v>11200</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,27 +741,30 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E9" s="3">
         <v>36300</v>
       </c>
-      <c r="E9" s="3">
-        <v>32100</v>
-      </c>
       <c r="F9" s="3">
-        <v>14000</v>
+        <v>32200</v>
       </c>
       <c r="G9" s="3">
+        <v>14100</v>
+      </c>
+      <c r="H9" s="3">
         <v>5800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,27 +774,30 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100400</v>
+        <v>336900</v>
       </c>
       <c r="E10" s="3">
-        <v>72300</v>
+        <v>100500</v>
       </c>
       <c r="F10" s="3">
+        <v>72400</v>
+      </c>
+      <c r="G10" s="3">
         <v>26100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,26 +825,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E12" s="3">
         <v>33800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7900</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>237400</v>
+      </c>
+      <c r="E17" s="3">
         <v>112500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>77600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39100</v>
       </c>
-      <c r="G17" s="3">
-        <v>25400</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>25500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>189100</v>
+      </c>
+      <c r="E18" s="3">
         <v>24200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>-14300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,26 +1050,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,27 +1080,30 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>25000</v>
+        <v>190400</v>
       </c>
       <c r="E21" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F21" s="3">
         <v>26900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,27 +1146,30 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>186800</v>
+      </c>
+      <c r="E23" s="3">
         <v>22900</v>
       </c>
-      <c r="E23" s="3">
-        <v>25800</v>
-      </c>
       <c r="F23" s="3">
+        <v>25900</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14400</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,27 +1179,30 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,27 +1245,30 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>170800</v>
+      </c>
+      <c r="E26" s="3">
         <v>21300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12700</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,27 +1278,30 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>170800</v>
+      </c>
+      <c r="E27" s="3">
         <v>18400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,27 +1443,30 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,27 +1476,30 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>170800</v>
+      </c>
+      <c r="E33" s="3">
         <v>18400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,27 +1542,30 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>170800</v>
+      </c>
+      <c r="E35" s="3">
         <v>18400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1918500</v>
+        <v>5606900</v>
       </c>
       <c r="E41" s="3">
-        <v>1543100</v>
+        <v>1920000</v>
       </c>
       <c r="F41" s="3">
-        <v>972100</v>
+        <v>1544300</v>
       </c>
       <c r="G41" s="3">
-        <v>453700</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>972900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>454000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>231000</v>
+        <v>1040600</v>
       </c>
       <c r="E43" s="3">
-        <v>99300</v>
+        <v>231200</v>
       </c>
       <c r="F43" s="3">
+        <v>99400</v>
+      </c>
+      <c r="G43" s="3">
         <v>50800</v>
       </c>
-      <c r="G43" s="3">
-        <v>104800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>104900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,27 +1775,30 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,9 +1808,12 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,27 +1841,30 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>560000</v>
+        <v>2468600</v>
       </c>
       <c r="E47" s="3">
-        <v>413400</v>
+        <v>560500</v>
       </c>
       <c r="F47" s="3">
-        <v>375000</v>
+        <v>413700</v>
       </c>
       <c r="G47" s="3">
+        <v>375300</v>
+      </c>
+      <c r="H47" s="3">
         <v>17000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1770,27 +1874,30 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35900</v>
+        <v>40900</v>
       </c>
       <c r="E48" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,17 +1907,20 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -1818,8 +1928,8 @@
       <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,27 +2006,30 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2754800</v>
+        <v>9190400</v>
       </c>
       <c r="E54" s="3">
-        <v>2067800</v>
+        <v>2757000</v>
       </c>
       <c r="F54" s="3">
-        <v>1406200</v>
+        <v>2069400</v>
       </c>
       <c r="G54" s="3">
-        <v>581500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1407300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>582000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,25 +2138,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2178600</v>
+        <v>6560800</v>
       </c>
       <c r="E57" s="3">
-        <v>1702800</v>
+        <v>2180300</v>
       </c>
       <c r="F57" s="3">
-        <v>1075600</v>
+        <v>1704200</v>
       </c>
       <c r="G57" s="3">
-        <v>534500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>1076400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>534900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2038,26 +2168,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>189100</v>
+        <v>1408900</v>
       </c>
       <c r="E58" s="3">
-        <v>202900</v>
+        <v>189300</v>
       </c>
       <c r="F58" s="3">
-        <v>198600</v>
+        <v>203100</v>
       </c>
       <c r="G58" s="3">
-        <v>20700</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>198700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>20800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2068,27 +2201,30 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E59" s="3">
         <v>56000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,9 +2234,12 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2144,11 +2286,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>4100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2158,9 +2300,12 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2426700</v>
+        <v>8120200</v>
       </c>
       <c r="E66" s="3">
-        <v>1926100</v>
+        <v>2428600</v>
       </c>
       <c r="F66" s="3">
-        <v>1283900</v>
+        <v>1927600</v>
       </c>
       <c r="G66" s="3">
-        <v>563600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>1284900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>564100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,17 +2559,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>161000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>152300</v>
+        <v>161100</v>
       </c>
       <c r="G70" s="3">
+        <v>152500</v>
+      </c>
+      <c r="H70" s="3">
         <v>42400</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,27 +2612,30 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>172900</v>
+      </c>
+      <c r="E72" s="3">
         <v>2200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,27 +2744,30 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>328100</v>
+        <v>1070300</v>
       </c>
       <c r="E76" s="3">
+        <v>328300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-19400</v>
       </c>
-      <c r="F76" s="3">
-        <v>-29900</v>
-      </c>
       <c r="G76" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="H76" s="3">
         <v>-24500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,27 +2848,30 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>170800</v>
+      </c>
+      <c r="E81" s="3">
         <v>18400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,26 +2899,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>253500</v>
+        <v>2635400</v>
       </c>
       <c r="E89" s="3">
-        <v>575400</v>
+        <v>253700</v>
       </c>
       <c r="F89" s="3">
-        <v>238800</v>
+        <v>575900</v>
       </c>
       <c r="G89" s="3">
-        <v>179900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>239000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>180100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,26 +3145,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,27 +3241,30 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20600</v>
       </c>
-      <c r="E94" s="3">
-        <v>-10000</v>
-      </c>
       <c r="F94" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,27 +3421,30 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>148200</v>
+        <v>1083100</v>
       </c>
       <c r="E100" s="3">
+        <v>148400</v>
+      </c>
+      <c r="F100" s="3">
         <v>4600</v>
       </c>
-      <c r="F100" s="3">
-        <v>277500</v>
-      </c>
       <c r="G100" s="3">
+        <v>277700</v>
+      </c>
+      <c r="H100" s="3">
         <v>19000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,26 +3454,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5700</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2800</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>375400</v>
+        <v>3686900</v>
       </c>
       <c r="E102" s="3">
-        <v>571000</v>
+        <v>375700</v>
       </c>
       <c r="F102" s="3">
-        <v>518500</v>
+        <v>571400</v>
       </c>
       <c r="G102" s="3">
-        <v>198100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>518900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>198300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>426500</v>
+        <v>425000</v>
       </c>
       <c r="E8" s="3">
-        <v>136800</v>
+        <v>136300</v>
       </c>
       <c r="F8" s="3">
-        <v>104500</v>
+        <v>104200</v>
       </c>
       <c r="G8" s="3">
-        <v>40200</v>
+        <v>40000</v>
       </c>
       <c r="H8" s="3">
         <v>11200</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>89700</v>
+        <v>89300</v>
       </c>
       <c r="E9" s="3">
-        <v>36300</v>
+        <v>36200</v>
       </c>
       <c r="F9" s="3">
-        <v>32200</v>
+        <v>32000</v>
       </c>
       <c r="G9" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="H9" s="3">
         <v>5800</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>336900</v>
+        <v>335700</v>
       </c>
       <c r="E10" s="3">
-        <v>100500</v>
+        <v>100100</v>
       </c>
       <c r="F10" s="3">
-        <v>72400</v>
+        <v>72100</v>
       </c>
       <c r="G10" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="H10" s="3">
         <v>5400</v>
@@ -832,13 +832,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>66100</v>
+        <v>65900</v>
       </c>
       <c r="E12" s="3">
-        <v>33800</v>
+        <v>33700</v>
       </c>
       <c r="F12" s="3">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="G12" s="3">
         <v>12300</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>237400</v>
+        <v>236600</v>
       </c>
       <c r="E17" s="3">
-        <v>112500</v>
+        <v>112100</v>
       </c>
       <c r="F17" s="3">
-        <v>77600</v>
+        <v>77400</v>
       </c>
       <c r="G17" s="3">
-        <v>39100</v>
+        <v>38900</v>
       </c>
       <c r="H17" s="3">
-        <v>25500</v>
+        <v>25400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>189100</v>
+        <v>188400</v>
       </c>
       <c r="E18" s="3">
-        <v>24200</v>
+        <v>24100</v>
       </c>
       <c r="F18" s="3">
-        <v>26900</v>
+        <v>26800</v>
       </c>
       <c r="G18" s="3">
         <v>1100</v>
       </c>
       <c r="H18" s="3">
-        <v>-14300</v>
+        <v>-14200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>190400</v>
+        <v>189700</v>
       </c>
       <c r="E21" s="3">
-        <v>25100</v>
+        <v>25000</v>
       </c>
       <c r="F21" s="3">
-        <v>26900</v>
+        <v>26800</v>
       </c>
       <c r="G21" s="3">
         <v>1000</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>186800</v>
+        <v>186200</v>
       </c>
       <c r="E23" s="3">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="F23" s="3">
-        <v>25900</v>
+        <v>25800</v>
       </c>
       <c r="G23" s="3">
         <v>400</v>
       </c>
       <c r="H23" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="E24" s="3">
         <v>1600</v>
@@ -1255,7 +1255,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>170800</v>
+        <v>170200</v>
       </c>
       <c r="E26" s="3">
         <v>21300</v>
@@ -1267,7 +1267,7 @@
         <v>-1000</v>
       </c>
       <c r="H26" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>170800</v>
+        <v>170200</v>
       </c>
       <c r="E27" s="3">
         <v>18400</v>
       </c>
       <c r="F27" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G27" s="3">
         <v>-7200</v>
       </c>
       <c r="H27" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>170800</v>
+        <v>170200</v>
       </c>
       <c r="E33" s="3">
         <v>18400</v>
       </c>
       <c r="F33" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G33" s="3">
         <v>-7200</v>
       </c>
       <c r="H33" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>170800</v>
+        <v>170200</v>
       </c>
       <c r="E35" s="3">
         <v>18400</v>
       </c>
       <c r="F35" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G35" s="3">
         <v>-7200</v>
       </c>
       <c r="H35" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5606900</v>
+        <v>5586900</v>
       </c>
       <c r="E41" s="3">
-        <v>1920000</v>
+        <v>1913200</v>
       </c>
       <c r="F41" s="3">
-        <v>1544300</v>
+        <v>1538800</v>
       </c>
       <c r="G41" s="3">
-        <v>972900</v>
+        <v>969400</v>
       </c>
       <c r="H41" s="3">
-        <v>454000</v>
+        <v>452400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1040600</v>
+        <v>1036800</v>
       </c>
       <c r="E43" s="3">
-        <v>231200</v>
+        <v>230300</v>
       </c>
       <c r="F43" s="3">
-        <v>99400</v>
+        <v>99000</v>
       </c>
       <c r="G43" s="3">
-        <v>50800</v>
+        <v>50600</v>
       </c>
       <c r="H43" s="3">
-        <v>104900</v>
+        <v>104500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2468600</v>
+        <v>2459800</v>
       </c>
       <c r="E47" s="3">
-        <v>560500</v>
+        <v>558500</v>
       </c>
       <c r="F47" s="3">
-        <v>413700</v>
+        <v>412300</v>
       </c>
       <c r="G47" s="3">
-        <v>375300</v>
+        <v>374000</v>
       </c>
       <c r="H47" s="3">
         <v>17000</v>
@@ -1884,10 +1884,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40900</v>
+        <v>40700</v>
       </c>
       <c r="E48" s="3">
-        <v>36000</v>
+        <v>35800</v>
       </c>
       <c r="F48" s="3">
         <v>2900</v>
@@ -2028,7 +2028,7 @@
         <v>2000</v>
       </c>
       <c r="H52" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9190400</v>
+        <v>9157600</v>
       </c>
       <c r="E54" s="3">
-        <v>2757000</v>
+        <v>2747100</v>
       </c>
       <c r="F54" s="3">
-        <v>2069400</v>
+        <v>2062000</v>
       </c>
       <c r="G54" s="3">
-        <v>1407300</v>
+        <v>1402300</v>
       </c>
       <c r="H54" s="3">
-        <v>582000</v>
+        <v>579900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6560800</v>
+        <v>6537400</v>
       </c>
       <c r="E57" s="3">
-        <v>2180300</v>
+        <v>2172500</v>
       </c>
       <c r="F57" s="3">
-        <v>1704200</v>
+        <v>1698100</v>
       </c>
       <c r="G57" s="3">
-        <v>1076400</v>
+        <v>1072600</v>
       </c>
       <c r="H57" s="3">
-        <v>534900</v>
+        <v>533000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1408900</v>
+        <v>1403800</v>
       </c>
       <c r="E58" s="3">
-        <v>189300</v>
+        <v>188600</v>
       </c>
       <c r="F58" s="3">
-        <v>203100</v>
+        <v>202300</v>
       </c>
       <c r="G58" s="3">
-        <v>198700</v>
+        <v>198000</v>
       </c>
       <c r="H58" s="3">
-        <v>20800</v>
+        <v>20700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,13 +2211,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>139900</v>
+        <v>139400</v>
       </c>
       <c r="E59" s="3">
-        <v>56000</v>
+        <v>55800</v>
       </c>
       <c r="F59" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="G59" s="3">
         <v>7900</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8120200</v>
+        <v>8091200</v>
       </c>
       <c r="E66" s="3">
-        <v>2428600</v>
+        <v>2420000</v>
       </c>
       <c r="F66" s="3">
-        <v>1927600</v>
+        <v>1920800</v>
       </c>
       <c r="G66" s="3">
-        <v>1284900</v>
+        <v>1280300</v>
       </c>
       <c r="H66" s="3">
-        <v>564100</v>
+        <v>562100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>161100</v>
+        <v>160500</v>
       </c>
       <c r="G70" s="3">
-        <v>152500</v>
+        <v>151900</v>
       </c>
       <c r="H70" s="3">
-        <v>42400</v>
+        <v>42300</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>172900</v>
+        <v>172300</v>
       </c>
       <c r="E72" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F72" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="G72" s="3">
-        <v>-29700</v>
+        <v>-29600</v>
       </c>
       <c r="H72" s="3">
-        <v>-24100</v>
+        <v>-24000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1070300</v>
+        <v>1066500</v>
       </c>
       <c r="E76" s="3">
-        <v>328300</v>
+        <v>327200</v>
       </c>
       <c r="F76" s="3">
-        <v>-19400</v>
+        <v>-19300</v>
       </c>
       <c r="G76" s="3">
-        <v>-30000</v>
+        <v>-29900</v>
       </c>
       <c r="H76" s="3">
         <v>-24500</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>170800</v>
+        <v>170200</v>
       </c>
       <c r="E81" s="3">
         <v>18400</v>
       </c>
       <c r="F81" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G81" s="3">
         <v>-7200</v>
       </c>
       <c r="H81" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2635400</v>
+        <v>2626000</v>
       </c>
       <c r="E89" s="3">
-        <v>253700</v>
+        <v>252800</v>
       </c>
       <c r="F89" s="3">
-        <v>575900</v>
+        <v>573800</v>
       </c>
       <c r="G89" s="3">
-        <v>239000</v>
+        <v>238200</v>
       </c>
       <c r="H89" s="3">
-        <v>180100</v>
+        <v>179400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,7 +3152,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="E91" s="3">
         <v>-15200</v>
@@ -3251,13 +3251,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31500</v>
+        <v>-31300</v>
       </c>
       <c r="E94" s="3">
-        <v>-20600</v>
+        <v>-20500</v>
       </c>
       <c r="F94" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="G94" s="3">
         <v>-700</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1083100</v>
+        <v>1079200</v>
       </c>
       <c r="E100" s="3">
-        <v>148400</v>
+        <v>147800</v>
       </c>
       <c r="F100" s="3">
         <v>4600</v>
       </c>
       <c r="G100" s="3">
-        <v>277700</v>
+        <v>276700</v>
       </c>
       <c r="H100" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3467,7 +3467,7 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="F101" s="3">
         <v>1000</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3686900</v>
+        <v>3673700</v>
       </c>
       <c r="E102" s="3">
-        <v>375700</v>
+        <v>374400</v>
       </c>
       <c r="F102" s="3">
-        <v>571400</v>
+        <v>569400</v>
       </c>
       <c r="G102" s="3">
-        <v>518900</v>
+        <v>517000</v>
       </c>
       <c r="H102" s="3">
-        <v>198300</v>
+        <v>197600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>425000</v>
+        <v>424500</v>
       </c>
       <c r="E8" s="3">
-        <v>136300</v>
+        <v>136100</v>
       </c>
       <c r="F8" s="3">
-        <v>104200</v>
+        <v>104000</v>
       </c>
       <c r="G8" s="3">
         <v>40000</v>
@@ -751,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>89300</v>
+        <v>89200</v>
       </c>
       <c r="E9" s="3">
-        <v>36200</v>
+        <v>36100</v>
       </c>
       <c r="F9" s="3">
         <v>32000</v>
@@ -784,13 +784,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>335700</v>
+        <v>335300</v>
       </c>
       <c r="E10" s="3">
-        <v>100100</v>
+        <v>100000</v>
       </c>
       <c r="F10" s="3">
-        <v>72100</v>
+        <v>72000</v>
       </c>
       <c r="G10" s="3">
         <v>26000</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>65900</v>
+        <v>65800</v>
       </c>
       <c r="E12" s="3">
-        <v>33700</v>
+        <v>33600</v>
       </c>
       <c r="F12" s="3">
         <v>19400</v>
       </c>
       <c r="G12" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="H12" s="3">
         <v>7900</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>236600</v>
+        <v>236300</v>
       </c>
       <c r="E17" s="3">
-        <v>112100</v>
+        <v>112000</v>
       </c>
       <c r="F17" s="3">
-        <v>77400</v>
+        <v>77300</v>
       </c>
       <c r="G17" s="3">
         <v>38900</v>
       </c>
       <c r="H17" s="3">
-        <v>25400</v>
+        <v>25300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>188400</v>
+        <v>188200</v>
       </c>
       <c r="E18" s="3">
         <v>24100</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
         <v>-1300</v>
@@ -1090,10 +1090,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>189700</v>
+        <v>189400</v>
       </c>
       <c r="E21" s="3">
-        <v>25000</v>
+        <v>24900</v>
       </c>
       <c r="F21" s="3">
         <v>26800</v>
@@ -1156,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>186200</v>
+        <v>185900</v>
       </c>
       <c r="E23" s="3">
         <v>22800</v>
       </c>
       <c r="F23" s="3">
-        <v>25800</v>
+        <v>25700</v>
       </c>
       <c r="G23" s="3">
         <v>400</v>
@@ -1255,10 +1255,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>170200</v>
+        <v>169900</v>
       </c>
       <c r="E26" s="3">
-        <v>21300</v>
+        <v>21200</v>
       </c>
       <c r="F26" s="3">
         <v>17800</v>
@@ -1288,7 +1288,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>170200</v>
+        <v>169900</v>
       </c>
       <c r="E27" s="3">
         <v>18400</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
         <v>1300</v>
@@ -1486,7 +1486,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>170200</v>
+        <v>169900</v>
       </c>
       <c r="E33" s="3">
         <v>18400</v>
@@ -1552,7 +1552,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>170200</v>
+        <v>169900</v>
       </c>
       <c r="E35" s="3">
         <v>18400</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5586900</v>
+        <v>5579900</v>
       </c>
       <c r="E41" s="3">
-        <v>1913200</v>
+        <v>1910800</v>
       </c>
       <c r="F41" s="3">
-        <v>1538800</v>
+        <v>1536900</v>
       </c>
       <c r="G41" s="3">
-        <v>969400</v>
+        <v>968200</v>
       </c>
       <c r="H41" s="3">
-        <v>452400</v>
+        <v>451800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1036800</v>
+        <v>1035600</v>
       </c>
       <c r="E43" s="3">
-        <v>230300</v>
+        <v>230100</v>
       </c>
       <c r="F43" s="3">
-        <v>99000</v>
+        <v>98900</v>
       </c>
       <c r="G43" s="3">
         <v>50600</v>
       </c>
       <c r="H43" s="3">
-        <v>104500</v>
+        <v>104400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2459800</v>
+        <v>2456700</v>
       </c>
       <c r="E47" s="3">
-        <v>558500</v>
+        <v>557800</v>
       </c>
       <c r="F47" s="3">
-        <v>412300</v>
+        <v>411700</v>
       </c>
       <c r="G47" s="3">
-        <v>374000</v>
+        <v>373500</v>
       </c>
       <c r="H47" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9157600</v>
+        <v>9146200</v>
       </c>
       <c r="E54" s="3">
-        <v>2747100</v>
+        <v>2743700</v>
       </c>
       <c r="F54" s="3">
-        <v>2062000</v>
+        <v>2059400</v>
       </c>
       <c r="G54" s="3">
-        <v>1402300</v>
+        <v>1400600</v>
       </c>
       <c r="H54" s="3">
-        <v>579900</v>
+        <v>579200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6537400</v>
+        <v>6529200</v>
       </c>
       <c r="E57" s="3">
-        <v>2172500</v>
+        <v>2169800</v>
       </c>
       <c r="F57" s="3">
-        <v>1698100</v>
+        <v>1696000</v>
       </c>
       <c r="G57" s="3">
-        <v>1072600</v>
+        <v>1071300</v>
       </c>
       <c r="H57" s="3">
-        <v>533000</v>
+        <v>532300</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1403800</v>
+        <v>1402100</v>
       </c>
       <c r="E58" s="3">
-        <v>188600</v>
+        <v>188400</v>
       </c>
       <c r="F58" s="3">
-        <v>202300</v>
+        <v>202100</v>
       </c>
       <c r="G58" s="3">
-        <v>198000</v>
+        <v>197800</v>
       </c>
       <c r="H58" s="3">
         <v>20700</v>
@@ -2211,7 +2211,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>139400</v>
+        <v>139200</v>
       </c>
       <c r="E59" s="3">
         <v>55800</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8091200</v>
+        <v>8081100</v>
       </c>
       <c r="E66" s="3">
-        <v>2420000</v>
+        <v>2416900</v>
       </c>
       <c r="F66" s="3">
-        <v>1920800</v>
+        <v>1918400</v>
       </c>
       <c r="G66" s="3">
-        <v>1280300</v>
+        <v>1278700</v>
       </c>
       <c r="H66" s="3">
-        <v>562100</v>
+        <v>561400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>160500</v>
+        <v>160300</v>
       </c>
       <c r="G70" s="3">
-        <v>151900</v>
+        <v>151700</v>
       </c>
       <c r="H70" s="3">
-        <v>42300</v>
+        <v>42200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>172300</v>
+        <v>172100</v>
       </c>
       <c r="E72" s="3">
         <v>2100</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1066500</v>
+        <v>1065100</v>
       </c>
       <c r="E76" s="3">
-        <v>327200</v>
+        <v>326700</v>
       </c>
       <c r="F76" s="3">
-        <v>-19300</v>
+        <v>-19200</v>
       </c>
       <c r="G76" s="3">
-        <v>-29900</v>
+        <v>-29800</v>
       </c>
       <c r="H76" s="3">
-        <v>-24500</v>
+        <v>-24400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,7 +2858,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>170200</v>
+        <v>169900</v>
       </c>
       <c r="E81" s="3">
         <v>18400</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2626000</v>
+        <v>2622800</v>
       </c>
       <c r="E89" s="3">
-        <v>252800</v>
+        <v>252500</v>
       </c>
       <c r="F89" s="3">
-        <v>573800</v>
+        <v>573100</v>
       </c>
       <c r="G89" s="3">
-        <v>238200</v>
+        <v>237900</v>
       </c>
       <c r="H89" s="3">
-        <v>179400</v>
+        <v>179200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1079200</v>
+        <v>1077800</v>
       </c>
       <c r="E100" s="3">
-        <v>147800</v>
+        <v>147600</v>
       </c>
       <c r="F100" s="3">
         <v>4600</v>
       </c>
       <c r="G100" s="3">
-        <v>276700</v>
+        <v>276400</v>
       </c>
       <c r="H100" s="3">
         <v>18900</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3673700</v>
+        <v>3669200</v>
       </c>
       <c r="E102" s="3">
-        <v>374400</v>
+        <v>373900</v>
       </c>
       <c r="F102" s="3">
-        <v>569400</v>
+        <v>568600</v>
       </c>
       <c r="G102" s="3">
-        <v>517000</v>
+        <v>516400</v>
       </c>
       <c r="H102" s="3">
-        <v>197600</v>
+        <v>197300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>FUTU</t>
   </si>
@@ -666,7 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -718,19 +719,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>424500</v>
+        <v>422900</v>
       </c>
       <c r="E8" s="3">
-        <v>136100</v>
+        <v>135600</v>
       </c>
       <c r="F8" s="3">
-        <v>104000</v>
+        <v>103600</v>
       </c>
       <c r="G8" s="3">
-        <v>40000</v>
+        <v>39800</v>
       </c>
       <c r="H8" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,16 +752,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>89200</v>
+        <v>88900</v>
       </c>
       <c r="E9" s="3">
-        <v>36100</v>
+        <v>36000</v>
       </c>
       <c r="F9" s="3">
-        <v>32000</v>
+        <v>31900</v>
       </c>
       <c r="G9" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="H9" s="3">
         <v>5800</v>
@@ -784,16 +785,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>335300</v>
+        <v>334000</v>
       </c>
       <c r="E10" s="3">
-        <v>100000</v>
+        <v>99600</v>
       </c>
       <c r="F10" s="3">
-        <v>72000</v>
+        <v>71800</v>
       </c>
       <c r="G10" s="3">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="H10" s="3">
         <v>5400</v>
@@ -832,13 +833,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>65800</v>
+        <v>65600</v>
       </c>
       <c r="E12" s="3">
-        <v>33600</v>
+        <v>33500</v>
       </c>
       <c r="F12" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="G12" s="3">
         <v>12200</v>
@@ -976,16 +977,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>236300</v>
+        <v>235400</v>
       </c>
       <c r="E17" s="3">
-        <v>112000</v>
+        <v>111600</v>
       </c>
       <c r="F17" s="3">
-        <v>77300</v>
+        <v>77000</v>
       </c>
       <c r="G17" s="3">
-        <v>38900</v>
+        <v>38800</v>
       </c>
       <c r="H17" s="3">
         <v>25300</v>
@@ -1009,19 +1010,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>188200</v>
+        <v>187500</v>
       </c>
       <c r="E18" s="3">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="F18" s="3">
-        <v>26800</v>
+        <v>26700</v>
       </c>
       <c r="G18" s="3">
         <v>1100</v>
       </c>
       <c r="H18" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1091,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>189400</v>
+        <v>188700</v>
       </c>
       <c r="E21" s="3">
-        <v>24900</v>
+        <v>24800</v>
       </c>
       <c r="F21" s="3">
-        <v>26800</v>
+        <v>26700</v>
       </c>
       <c r="G21" s="3">
         <v>1000</v>
       </c>
       <c r="H21" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,10 +1157,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>185900</v>
+        <v>185300</v>
       </c>
       <c r="E23" s="3">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="F23" s="3">
         <v>25700</v>
@@ -1189,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="E24" s="3">
         <v>1600</v>
@@ -1255,13 +1256,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>169900</v>
+        <v>169300</v>
       </c>
       <c r="E26" s="3">
         <v>21200</v>
       </c>
       <c r="F26" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="G26" s="3">
         <v>-1000</v>
@@ -1288,16 +1289,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>169900</v>
+        <v>169300</v>
       </c>
       <c r="E27" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="F27" s="3">
         <v>4700</v>
       </c>
       <c r="G27" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="H27" s="3">
         <v>-14900</v>
@@ -1486,16 +1487,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169900</v>
+        <v>169300</v>
       </c>
       <c r="E33" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="F33" s="3">
         <v>4700</v>
       </c>
       <c r="G33" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="H33" s="3">
         <v>-14900</v>
@@ -1552,16 +1553,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169900</v>
+        <v>169300</v>
       </c>
       <c r="E35" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="F35" s="3">
         <v>4700</v>
       </c>
       <c r="G35" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="H35" s="3">
         <v>-14900</v>
@@ -1653,22 +1654,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5579900</v>
+        <v>7573600</v>
       </c>
       <c r="E41" s="3">
-        <v>1910800</v>
+        <v>5559500</v>
       </c>
       <c r="F41" s="3">
-        <v>1536900</v>
+        <v>1903800</v>
       </c>
       <c r="G41" s="3">
-        <v>968200</v>
+        <v>1531200</v>
       </c>
       <c r="H41" s="3">
-        <v>451800</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>964700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>450200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1720,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1035600</v>
+        <v>1334600</v>
       </c>
       <c r="E43" s="3">
-        <v>230100</v>
+        <v>1031800</v>
       </c>
       <c r="F43" s="3">
-        <v>98900</v>
+        <v>229200</v>
       </c>
       <c r="G43" s="3">
-        <v>50600</v>
+        <v>98500</v>
       </c>
       <c r="H43" s="3">
-        <v>104400</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>50400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>104000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1786,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1851,22 +1852,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2456700</v>
+        <v>3945500</v>
       </c>
       <c r="E47" s="3">
-        <v>557800</v>
+        <v>2447700</v>
       </c>
       <c r="F47" s="3">
-        <v>411700</v>
+        <v>555700</v>
       </c>
       <c r="G47" s="3">
-        <v>373500</v>
+        <v>410200</v>
       </c>
       <c r="H47" s="3">
+        <v>372200</v>
+      </c>
+      <c r="I47" s="3">
         <v>16900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1884,22 +1885,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40700</v>
+        <v>31200</v>
       </c>
       <c r="E48" s="3">
-        <v>35800</v>
+        <v>40500</v>
       </c>
       <c r="F48" s="3">
+        <v>35700</v>
+      </c>
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1916,14 +1917,14 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>1300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -1931,8 +1932,8 @@
       <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2017,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2083,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9146200</v>
+        <v>12970500</v>
       </c>
       <c r="E54" s="3">
-        <v>2743700</v>
+        <v>9112700</v>
       </c>
       <c r="F54" s="3">
-        <v>2059400</v>
+        <v>2733600</v>
       </c>
       <c r="G54" s="3">
-        <v>1400600</v>
+        <v>2051900</v>
       </c>
       <c r="H54" s="3">
-        <v>579200</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>1395400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>577100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2146,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6529200</v>
+        <v>8575900</v>
       </c>
       <c r="E57" s="3">
-        <v>2169800</v>
+        <v>6505300</v>
       </c>
       <c r="F57" s="3">
-        <v>1696000</v>
+        <v>2161800</v>
       </c>
       <c r="G57" s="3">
-        <v>1071300</v>
+        <v>1689700</v>
       </c>
       <c r="H57" s="3">
-        <v>532300</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>1067300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>530400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2179,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1402100</v>
+        <v>1382800</v>
       </c>
       <c r="E58" s="3">
-        <v>188400</v>
+        <v>1396900</v>
       </c>
       <c r="F58" s="3">
-        <v>202100</v>
+        <v>187700</v>
       </c>
       <c r="G58" s="3">
-        <v>197800</v>
+        <v>201400</v>
       </c>
       <c r="H58" s="3">
-        <v>20700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>197000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>20600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2212,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>139200</v>
+        <v>329700</v>
       </c>
       <c r="E59" s="3">
-        <v>55800</v>
+        <v>138700</v>
       </c>
       <c r="F59" s="3">
+        <v>55600</v>
+      </c>
+      <c r="G59" s="3">
         <v>18000</v>
       </c>
-      <c r="G59" s="3">
-        <v>7900</v>
-      </c>
       <c r="H59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I59" s="3">
         <v>3200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2289,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>4100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2442,22 +2443,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8081100</v>
+        <v>10289800</v>
       </c>
       <c r="E66" s="3">
-        <v>2416900</v>
+        <v>8051500</v>
       </c>
       <c r="F66" s="3">
-        <v>1918400</v>
+        <v>2408100</v>
       </c>
       <c r="G66" s="3">
-        <v>1278700</v>
+        <v>1911300</v>
       </c>
       <c r="H66" s="3">
-        <v>561400</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>1274000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>559300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2562,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>160300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>151700</v>
+        <v>159700</v>
       </c>
       <c r="H70" s="3">
-        <v>42200</v>
+        <v>151200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2622,22 +2623,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>172100</v>
+        <v>530400</v>
       </c>
       <c r="E72" s="3">
+        <v>171500</v>
+      </c>
+      <c r="F72" s="3">
         <v>2100</v>
       </c>
-      <c r="F72" s="3">
-        <v>-19100</v>
-      </c>
       <c r="G72" s="3">
-        <v>-29600</v>
+        <v>-19000</v>
       </c>
       <c r="H72" s="3">
-        <v>-24000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-29500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-23900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2755,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1065100</v>
+        <v>2680700</v>
       </c>
       <c r="E76" s="3">
-        <v>326700</v>
+        <v>1061200</v>
       </c>
       <c r="F76" s="3">
+        <v>325600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-19200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-29800</v>
       </c>
-      <c r="H76" s="3">
-        <v>-24400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>-24200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2859,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169900</v>
+        <v>169300</v>
       </c>
       <c r="E81" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="F81" s="3">
         <v>4700</v>
       </c>
       <c r="G81" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="H81" s="3">
         <v>-14900</v>
@@ -2915,7 +2916,7 @@
         <v>1100</v>
       </c>
       <c r="G83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -3104,19 +3105,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2622800</v>
+        <v>2613100</v>
       </c>
       <c r="E89" s="3">
-        <v>252500</v>
+        <v>251600</v>
       </c>
       <c r="F89" s="3">
-        <v>573100</v>
+        <v>571000</v>
       </c>
       <c r="G89" s="3">
-        <v>237900</v>
+        <v>237000</v>
       </c>
       <c r="H89" s="3">
-        <v>179200</v>
+        <v>178500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3155,13 +3156,13 @@
         <v>-5700</v>
       </c>
       <c r="E91" s="3">
-        <v>-15200</v>
+        <v>-15100</v>
       </c>
       <c r="F91" s="3">
         <v>-2400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="H91" s="3">
         <v>-500</v>
@@ -3251,10 +3252,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31300</v>
+        <v>-31200</v>
       </c>
       <c r="E94" s="3">
-        <v>-20500</v>
+        <v>-20400</v>
       </c>
       <c r="F94" s="3">
         <v>-10000</v>
@@ -3431,16 +3432,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1077800</v>
+        <v>1073900</v>
       </c>
       <c r="E100" s="3">
-        <v>147600</v>
+        <v>147100</v>
       </c>
       <c r="F100" s="3">
         <v>4600</v>
       </c>
       <c r="G100" s="3">
-        <v>276400</v>
+        <v>275400</v>
       </c>
       <c r="H100" s="3">
         <v>18900</v>
@@ -3497,19 +3498,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3669200</v>
+        <v>3655700</v>
       </c>
       <c r="E102" s="3">
-        <v>373900</v>
+        <v>372500</v>
       </c>
       <c r="F102" s="3">
-        <v>568600</v>
+        <v>566600</v>
       </c>
       <c r="G102" s="3">
-        <v>516400</v>
+        <v>514500</v>
       </c>
       <c r="H102" s="3">
-        <v>197300</v>
+        <v>196600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>FUTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,43 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,30 +711,33 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>422900</v>
+        <v>906400</v>
       </c>
       <c r="E8" s="3">
-        <v>135600</v>
+        <v>421800</v>
       </c>
       <c r="F8" s="3">
-        <v>103600</v>
+        <v>135200</v>
       </c>
       <c r="G8" s="3">
-        <v>39800</v>
+        <v>103400</v>
       </c>
       <c r="H8" s="3">
+        <v>39700</v>
+      </c>
+      <c r="I8" s="3">
         <v>11100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>88900</v>
+        <v>153600</v>
       </c>
       <c r="E9" s="3">
-        <v>36000</v>
+        <v>88700</v>
       </c>
       <c r="F9" s="3">
-        <v>31900</v>
+        <v>35900</v>
       </c>
       <c r="G9" s="3">
+        <v>31800</v>
+      </c>
+      <c r="H9" s="3">
         <v>13900</v>
       </c>
-      <c r="H9" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>5700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -778,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>334000</v>
+        <v>752800</v>
       </c>
       <c r="E10" s="3">
-        <v>99600</v>
+        <v>333100</v>
       </c>
       <c r="F10" s="3">
-        <v>71800</v>
+        <v>99300</v>
       </c>
       <c r="G10" s="3">
-        <v>25900</v>
+        <v>71600</v>
       </c>
       <c r="H10" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>25800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -811,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,29 +838,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>65600</v>
+        <v>102600</v>
       </c>
       <c r="E12" s="3">
-        <v>33500</v>
+        <v>65400</v>
       </c>
       <c r="F12" s="3">
-        <v>19300</v>
+        <v>33400</v>
       </c>
       <c r="G12" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H12" s="3">
         <v>12200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7900</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -925,9 +943,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -958,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>235400</v>
+        <v>501000</v>
       </c>
       <c r="E17" s="3">
-        <v>111600</v>
+        <v>234800</v>
       </c>
       <c r="F17" s="3">
-        <v>77000</v>
+        <v>111300</v>
       </c>
       <c r="G17" s="3">
-        <v>38800</v>
+        <v>76800</v>
       </c>
       <c r="H17" s="3">
-        <v>25300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>38600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>25200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1003,30 +1028,33 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>187500</v>
+        <v>405500</v>
       </c>
       <c r="E18" s="3">
-        <v>24000</v>
+        <v>187000</v>
       </c>
       <c r="F18" s="3">
-        <v>26700</v>
+        <v>23900</v>
       </c>
       <c r="G18" s="3">
+        <v>26600</v>
+      </c>
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,29 +1083,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,30 +1116,33 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>188700</v>
+        <v>410400</v>
       </c>
       <c r="E21" s="3">
+        <v>188200</v>
+      </c>
+      <c r="F21" s="3">
         <v>24800</v>
       </c>
-      <c r="F21" s="3">
-        <v>26700</v>
-      </c>
       <c r="G21" s="3">
+        <v>26600</v>
+      </c>
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1117,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1150,29 +1188,32 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>185300</v>
+        <v>405800</v>
       </c>
       <c r="E23" s="3">
+        <v>184800</v>
+      </c>
+      <c r="F23" s="3">
         <v>22700</v>
       </c>
-      <c r="F23" s="3">
-        <v>25700</v>
-      </c>
       <c r="G23" s="3">
+        <v>25600</v>
+      </c>
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>-14200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1183,30 +1224,33 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E24" s="3">
         <v>15900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
-        <v>8000</v>
-      </c>
       <c r="G24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>169300</v>
+        <v>358000</v>
       </c>
       <c r="E26" s="3">
-        <v>21200</v>
+        <v>168900</v>
       </c>
       <c r="F26" s="3">
-        <v>17700</v>
+        <v>21100</v>
       </c>
       <c r="G26" s="3">
+        <v>17600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-12500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1282,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>169300</v>
+        <v>358000</v>
       </c>
       <c r="E27" s="3">
-        <v>18300</v>
+        <v>168900</v>
       </c>
       <c r="F27" s="3">
+        <v>18200</v>
+      </c>
+      <c r="G27" s="3">
         <v>4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>-14800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1315,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,30 +1512,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1480,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169300</v>
+        <v>358000</v>
       </c>
       <c r="E33" s="3">
-        <v>18300</v>
+        <v>168900</v>
       </c>
       <c r="F33" s="3">
+        <v>18200</v>
+      </c>
+      <c r="G33" s="3">
         <v>4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7100</v>
       </c>
-      <c r="H33" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>-14800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1513,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169300</v>
+        <v>358000</v>
       </c>
       <c r="E35" s="3">
-        <v>18300</v>
+        <v>168900</v>
       </c>
       <c r="F35" s="3">
+        <v>18200</v>
+      </c>
+      <c r="G35" s="3">
         <v>4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7100</v>
       </c>
-      <c r="H35" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>-14800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1579,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1617,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7573600</v>
+        <v>7552900</v>
       </c>
       <c r="E41" s="3">
-        <v>5559500</v>
+        <v>5544200</v>
       </c>
       <c r="F41" s="3">
-        <v>1903800</v>
+        <v>1898500</v>
       </c>
       <c r="G41" s="3">
-        <v>1531200</v>
+        <v>1527000</v>
       </c>
       <c r="H41" s="3">
-        <v>964700</v>
+        <v>962000</v>
       </c>
       <c r="I41" s="3">
-        <v>450200</v>
+        <v>448900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1680,32 +1765,35 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>162500</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>38200</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1713,29 +1801,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1334600</v>
+        <v>5103500</v>
       </c>
       <c r="E43" s="3">
-        <v>1031800</v>
+        <v>1033600</v>
       </c>
       <c r="F43" s="3">
-        <v>229200</v>
+        <v>236400</v>
       </c>
       <c r="G43" s="3">
-        <v>98500</v>
+        <v>106600</v>
       </c>
       <c r="H43" s="3">
-        <v>50400</v>
+        <v>51000</v>
       </c>
       <c r="I43" s="3">
-        <v>104000</v>
+        <v>103700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1746,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1779,14 +1873,17 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2300</v>
+        <v>9600</v>
       </c>
       <c r="E45" s="3">
         <v>1500</v>
@@ -1812,32 +1909,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>12828500</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>6617500</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>2148500</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>1642300</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>1013400</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+        <v>553300</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -1845,29 +1945,32 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3945500</v>
+        <v>3000</v>
       </c>
       <c r="E47" s="3">
-        <v>2447700</v>
+        <v>2398200</v>
       </c>
       <c r="F47" s="3">
-        <v>555700</v>
+        <v>534400</v>
       </c>
       <c r="G47" s="3">
-        <v>410200</v>
+        <v>393200</v>
       </c>
       <c r="H47" s="3">
-        <v>372200</v>
+        <v>370400</v>
       </c>
       <c r="I47" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1878,20 +1981,23 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31200</v>
+        <v>53500</v>
       </c>
       <c r="E48" s="3">
-        <v>40500</v>
+        <v>40400</v>
       </c>
       <c r="F48" s="3">
-        <v>35700</v>
+        <v>35600</v>
       </c>
       <c r="G48" s="3">
         <v>2900</v>
@@ -1900,7 +2006,7 @@
         <v>1700</v>
       </c>
       <c r="I48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1911,14 +2017,17 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>2200</v>
       </c>
       <c r="E49" s="3">
         <v>1300</v>
@@ -1944,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>47900</v>
       </c>
       <c r="E52" s="3">
-        <v>2200</v>
+        <v>30400</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>6700</v>
       </c>
       <c r="G52" s="3">
-        <v>2700</v>
+        <v>7600</v>
       </c>
       <c r="H52" s="3">
-        <v>2000</v>
+        <v>5800</v>
       </c>
       <c r="I52" s="3">
-        <v>2500</v>
+        <v>4100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2043,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12970500</v>
+        <v>12935000</v>
       </c>
       <c r="E54" s="3">
-        <v>9112700</v>
+        <v>9087700</v>
       </c>
       <c r="F54" s="3">
-        <v>2733600</v>
+        <v>2726100</v>
       </c>
       <c r="G54" s="3">
-        <v>2051900</v>
+        <v>2046300</v>
       </c>
       <c r="H54" s="3">
-        <v>1395400</v>
+        <v>1391600</v>
       </c>
       <c r="I54" s="3">
-        <v>577100</v>
+        <v>575500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2109,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,28 +2268,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8575900</v>
+        <v>8550500</v>
       </c>
       <c r="E57" s="3">
-        <v>6505300</v>
+        <v>6486800</v>
       </c>
       <c r="F57" s="3">
-        <v>2161800</v>
+        <v>2155800</v>
       </c>
       <c r="G57" s="3">
-        <v>1689700</v>
+        <v>1684800</v>
       </c>
       <c r="H57" s="3">
-        <v>1067300</v>
+        <v>1064100</v>
       </c>
       <c r="I57" s="3">
-        <v>530400</v>
+        <v>528600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2172,29 +2301,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1382800</v>
+        <v>1379000</v>
       </c>
       <c r="E58" s="3">
-        <v>1396900</v>
+        <v>1393100</v>
       </c>
       <c r="F58" s="3">
-        <v>187700</v>
+        <v>187200</v>
       </c>
       <c r="G58" s="3">
-        <v>201400</v>
+        <v>200800</v>
       </c>
       <c r="H58" s="3">
-        <v>197000</v>
+        <v>196500</v>
       </c>
       <c r="I58" s="3">
-        <v>20600</v>
+        <v>20500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2205,29 +2337,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>329700</v>
+        <v>309900</v>
       </c>
       <c r="E59" s="3">
-        <v>138700</v>
+        <v>121200</v>
       </c>
       <c r="F59" s="3">
-        <v>55600</v>
+        <v>36500</v>
       </c>
       <c r="G59" s="3">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="H59" s="3">
-        <v>7800</v>
+        <v>9900</v>
       </c>
       <c r="I59" s="3">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2238,32 +2373,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>10239400</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>8001100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>2379500</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>1906100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>1270500</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
+        <v>553700</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -2271,9 +2409,12 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2304,32 +2445,35 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>22200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>28300</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>22000</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2337,9 +2481,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10289800</v>
+        <v>10261600</v>
       </c>
       <c r="E66" s="3">
-        <v>8051500</v>
+        <v>8029400</v>
       </c>
       <c r="F66" s="3">
-        <v>2408100</v>
+        <v>2401500</v>
       </c>
       <c r="G66" s="3">
-        <v>1911300</v>
+        <v>1906100</v>
       </c>
       <c r="H66" s="3">
-        <v>1274000</v>
+        <v>1270500</v>
       </c>
       <c r="I66" s="3">
-        <v>559300</v>
+        <v>557800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2469,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2566,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>159700</v>
+        <v>159300</v>
       </c>
       <c r="H70" s="3">
-        <v>151200</v>
+        <v>150800</v>
       </c>
       <c r="I70" s="3">
-        <v>42000</v>
+        <v>41900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2583,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,17 +2785,20 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>530400</v>
+        <v>529000</v>
       </c>
       <c r="E72" s="3">
-        <v>171500</v>
+        <v>171000</v>
       </c>
       <c r="F72" s="3">
         <v>2100</v>
@@ -2635,7 +2807,7 @@
         <v>-19000</v>
       </c>
       <c r="H72" s="3">
-        <v>-29500</v>
+        <v>-29400</v>
       </c>
       <c r="I72" s="3">
         <v>-23900</v>
@@ -2649,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2680700</v>
+        <v>2673400</v>
       </c>
       <c r="E76" s="3">
-        <v>1061200</v>
+        <v>1058300</v>
       </c>
       <c r="F76" s="3">
-        <v>325600</v>
+        <v>324700</v>
       </c>
       <c r="G76" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="H76" s="3">
-        <v>-29800</v>
+        <v>-29700</v>
       </c>
       <c r="I76" s="3">
         <v>-24200</v>
@@ -2781,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2852,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169300</v>
+        <v>358000</v>
       </c>
       <c r="E81" s="3">
-        <v>18300</v>
+        <v>168900</v>
       </c>
       <c r="F81" s="3">
+        <v>18200</v>
+      </c>
+      <c r="G81" s="3">
         <v>4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7100</v>
       </c>
-      <c r="H81" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>-14800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2885,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>3500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2933,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2613100</v>
+        <v>765900</v>
       </c>
       <c r="E89" s="3">
-        <v>251600</v>
+        <v>2606000</v>
       </c>
       <c r="F89" s="3">
-        <v>571000</v>
+        <v>250900</v>
       </c>
       <c r="G89" s="3">
-        <v>237000</v>
+        <v>569500</v>
       </c>
       <c r="H89" s="3">
-        <v>178500</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>236400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>178100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3131,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,29 +3365,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,30 +3470,33 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31200</v>
+        <v>-122700</v>
       </c>
       <c r="E94" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-20400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-10000</v>
-      </c>
       <c r="G94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,29 +3666,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1073900</v>
+        <v>1344500</v>
       </c>
       <c r="E100" s="3">
-        <v>147100</v>
+        <v>1071000</v>
       </c>
       <c r="F100" s="3">
-        <v>4600</v>
+        <v>146700</v>
       </c>
       <c r="G100" s="3">
-        <v>275400</v>
+        <v>4500</v>
       </c>
       <c r="H100" s="3">
-        <v>18900</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>274600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>18800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3458,29 +3702,32 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5700</v>
       </c>
-      <c r="F101" s="3">
-        <v>1000</v>
-      </c>
       <c r="G101" s="3">
+        <v>900</v>
+      </c>
+      <c r="H101" s="3">
         <v>2800</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3491,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3655700</v>
+        <v>2008900</v>
       </c>
       <c r="E102" s="3">
-        <v>372500</v>
+        <v>3645700</v>
       </c>
       <c r="F102" s="3">
-        <v>566600</v>
+        <v>371500</v>
       </c>
       <c r="G102" s="3">
-        <v>514500</v>
+        <v>565000</v>
       </c>
       <c r="H102" s="3">
-        <v>196600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>513100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>196100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3524,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -721,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>906400</v>
+        <v>906800</v>
       </c>
       <c r="E8" s="3">
-        <v>421800</v>
+        <v>422000</v>
       </c>
       <c r="F8" s="3">
-        <v>135200</v>
+        <v>135300</v>
       </c>
       <c r="G8" s="3">
         <v>103400</v>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>153600</v>
+        <v>153700</v>
       </c>
       <c r="E9" s="3">
         <v>88700</v>
@@ -793,13 +793,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>752800</v>
+        <v>753100</v>
       </c>
       <c r="E10" s="3">
-        <v>333100</v>
+        <v>333300</v>
       </c>
       <c r="F10" s="3">
-        <v>99300</v>
+        <v>99400</v>
       </c>
       <c r="G10" s="3">
         <v>71600</v>
@@ -854,7 +854,7 @@
         <v>33400</v>
       </c>
       <c r="G12" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="H12" s="3">
         <v>12200</v>
@@ -1002,10 +1002,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>501000</v>
+        <v>501200</v>
       </c>
       <c r="E17" s="3">
-        <v>234800</v>
+        <v>234900</v>
       </c>
       <c r="F17" s="3">
         <v>111300</v>
@@ -1014,7 +1014,7 @@
         <v>76800</v>
       </c>
       <c r="H17" s="3">
-        <v>38600</v>
+        <v>38700</v>
       </c>
       <c r="I17" s="3">
         <v>25200</v>
@@ -1038,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>405500</v>
+        <v>405600</v>
       </c>
       <c r="E18" s="3">
-        <v>187000</v>
+        <v>187100</v>
       </c>
       <c r="F18" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="G18" s="3">
         <v>26600</v>
@@ -1126,16 +1126,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>410400</v>
+        <v>410600</v>
       </c>
       <c r="E21" s="3">
-        <v>188200</v>
+        <v>188300</v>
       </c>
       <c r="F21" s="3">
         <v>24800</v>
       </c>
       <c r="G21" s="3">
-        <v>26600</v>
+        <v>26700</v>
       </c>
       <c r="H21" s="3">
         <v>1000</v>
@@ -1198,7 +1198,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>405800</v>
+        <v>406000</v>
       </c>
       <c r="E23" s="3">
         <v>184800</v>
@@ -1306,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>358000</v>
+        <v>358200</v>
       </c>
       <c r="E26" s="3">
         <v>168900</v>
@@ -1315,13 +1315,13 @@
         <v>21100</v>
       </c>
       <c r="G26" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="H26" s="3">
         <v>-1000</v>
       </c>
       <c r="I26" s="3">
-        <v>-12500</v>
+        <v>-12600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>358000</v>
+        <v>358200</v>
       </c>
       <c r="E27" s="3">
         <v>168900</v>
@@ -1558,7 +1558,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>358000</v>
+        <v>358200</v>
       </c>
       <c r="E33" s="3">
         <v>168900</v>
@@ -1630,7 +1630,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>358000</v>
+        <v>358200</v>
       </c>
       <c r="E35" s="3">
         <v>168900</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7552900</v>
+        <v>7556400</v>
       </c>
       <c r="E41" s="3">
-        <v>5544200</v>
+        <v>5546800</v>
       </c>
       <c r="F41" s="3">
-        <v>1898500</v>
+        <v>1899400</v>
       </c>
       <c r="G41" s="3">
-        <v>1527000</v>
+        <v>1527800</v>
       </c>
       <c r="H41" s="3">
-        <v>962000</v>
+        <v>962500</v>
       </c>
       <c r="I41" s="3">
-        <v>448900</v>
+        <v>449200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,13 +1775,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>162500</v>
+        <v>162600</v>
       </c>
       <c r="E42" s="3">
         <v>38200</v>
       </c>
       <c r="F42" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="G42" s="3">
         <v>7600</v>
@@ -1811,13 +1811,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5103500</v>
+        <v>5105900</v>
       </c>
       <c r="E43" s="3">
-        <v>1033600</v>
+        <v>1034100</v>
       </c>
       <c r="F43" s="3">
-        <v>236400</v>
+        <v>236600</v>
       </c>
       <c r="G43" s="3">
         <v>106600</v>
@@ -1826,7 +1826,7 @@
         <v>51000</v>
       </c>
       <c r="I43" s="3">
-        <v>103700</v>
+        <v>103800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12828500</v>
+        <v>12834500</v>
       </c>
       <c r="E46" s="3">
-        <v>6617500</v>
+        <v>6620600</v>
       </c>
       <c r="F46" s="3">
-        <v>2148500</v>
+        <v>2149500</v>
       </c>
       <c r="G46" s="3">
-        <v>1642300</v>
+        <v>1643100</v>
       </c>
       <c r="H46" s="3">
-        <v>1013400</v>
+        <v>1013900</v>
       </c>
       <c r="I46" s="3">
-        <v>553300</v>
+        <v>553500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1958,16 +1958,16 @@
         <v>3000</v>
       </c>
       <c r="E47" s="3">
-        <v>2398200</v>
+        <v>2399300</v>
       </c>
       <c r="F47" s="3">
-        <v>534400</v>
+        <v>534600</v>
       </c>
       <c r="G47" s="3">
-        <v>393200</v>
+        <v>393400</v>
       </c>
       <c r="H47" s="3">
-        <v>370400</v>
+        <v>370600</v>
       </c>
       <c r="I47" s="3">
         <v>16800</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12935000</v>
+        <v>12941100</v>
       </c>
       <c r="E54" s="3">
-        <v>9087700</v>
+        <v>9092000</v>
       </c>
       <c r="F54" s="3">
-        <v>2726100</v>
+        <v>2727400</v>
       </c>
       <c r="G54" s="3">
-        <v>2046300</v>
+        <v>2047200</v>
       </c>
       <c r="H54" s="3">
-        <v>1391600</v>
+        <v>1392200</v>
       </c>
       <c r="I54" s="3">
-        <v>575500</v>
+        <v>575800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8550500</v>
+        <v>8554500</v>
       </c>
       <c r="E57" s="3">
-        <v>6486800</v>
+        <v>6489800</v>
       </c>
       <c r="F57" s="3">
-        <v>2155800</v>
+        <v>2156900</v>
       </c>
       <c r="G57" s="3">
-        <v>1684800</v>
+        <v>1685600</v>
       </c>
       <c r="H57" s="3">
-        <v>1064100</v>
+        <v>1064600</v>
       </c>
       <c r="I57" s="3">
-        <v>528600</v>
+        <v>528900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1379000</v>
+        <v>1379700</v>
       </c>
       <c r="E58" s="3">
-        <v>1393100</v>
+        <v>1393800</v>
       </c>
       <c r="F58" s="3">
         <v>187200</v>
       </c>
       <c r="G58" s="3">
-        <v>200800</v>
+        <v>200900</v>
       </c>
       <c r="H58" s="3">
-        <v>196500</v>
+        <v>196600</v>
       </c>
       <c r="I58" s="3">
         <v>20500</v>
@@ -2347,7 +2347,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>309900</v>
+        <v>310000</v>
       </c>
       <c r="E59" s="3">
         <v>121200</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10239400</v>
+        <v>10244200</v>
       </c>
       <c r="E60" s="3">
-        <v>8001100</v>
+        <v>8004900</v>
       </c>
       <c r="F60" s="3">
-        <v>2379500</v>
+        <v>2380600</v>
       </c>
       <c r="G60" s="3">
-        <v>1906100</v>
+        <v>1907000</v>
       </c>
       <c r="H60" s="3">
-        <v>1270500</v>
+        <v>1271100</v>
       </c>
       <c r="I60" s="3">
-        <v>553700</v>
+        <v>554000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,7 +2455,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="E62" s="3">
         <v>28300</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10261600</v>
+        <v>10266500</v>
       </c>
       <c r="E66" s="3">
-        <v>8029400</v>
+        <v>8033200</v>
       </c>
       <c r="F66" s="3">
-        <v>2401500</v>
+        <v>2402600</v>
       </c>
       <c r="G66" s="3">
-        <v>1906100</v>
+        <v>1907000</v>
       </c>
       <c r="H66" s="3">
-        <v>1270500</v>
+        <v>1271100</v>
       </c>
       <c r="I66" s="3">
-        <v>557800</v>
+        <v>558000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>159300</v>
+        <v>159400</v>
       </c>
       <c r="H70" s="3">
         <v>150800</v>
       </c>
       <c r="I70" s="3">
-        <v>41900</v>
+        <v>42000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,10 +2795,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>529000</v>
+        <v>529200</v>
       </c>
       <c r="E72" s="3">
-        <v>171000</v>
+        <v>171100</v>
       </c>
       <c r="F72" s="3">
         <v>2100</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2673400</v>
+        <v>2674600</v>
       </c>
       <c r="E76" s="3">
-        <v>1058300</v>
+        <v>1058800</v>
       </c>
       <c r="F76" s="3">
-        <v>324700</v>
+        <v>324800</v>
       </c>
       <c r="G76" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="H76" s="3">
-        <v>-29700</v>
+        <v>-29600</v>
       </c>
       <c r="I76" s="3">
-        <v>-24200</v>
+        <v>-24300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,7 +3052,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>358000</v>
+        <v>358200</v>
       </c>
       <c r="E81" s="3">
         <v>168900</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>765900</v>
+        <v>766200</v>
       </c>
       <c r="E89" s="3">
-        <v>2606000</v>
+        <v>2607200</v>
       </c>
       <c r="F89" s="3">
-        <v>250900</v>
+        <v>251000</v>
       </c>
       <c r="G89" s="3">
-        <v>569500</v>
+        <v>569700</v>
       </c>
       <c r="H89" s="3">
-        <v>236400</v>
+        <v>236500</v>
       </c>
       <c r="I89" s="3">
         <v>178100</v>
@@ -3480,7 +3480,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-122700</v>
+        <v>-122800</v>
       </c>
       <c r="E94" s="3">
         <v>-31100</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1344500</v>
+        <v>1345100</v>
       </c>
       <c r="E100" s="3">
-        <v>1071000</v>
+        <v>1071500</v>
       </c>
       <c r="F100" s="3">
-        <v>146700</v>
+        <v>146800</v>
       </c>
       <c r="G100" s="3">
         <v>4500</v>
       </c>
       <c r="H100" s="3">
-        <v>274600</v>
+        <v>274800</v>
       </c>
       <c r="I100" s="3">
         <v>18800</v>
@@ -3721,7 +3721,7 @@
         <v>-5700</v>
       </c>
       <c r="G101" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H101" s="3">
         <v>2800</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2008900</v>
+        <v>2009900</v>
       </c>
       <c r="E102" s="3">
-        <v>3645700</v>
+        <v>3647400</v>
       </c>
       <c r="F102" s="3">
-        <v>371500</v>
+        <v>371700</v>
       </c>
       <c r="G102" s="3">
-        <v>565000</v>
+        <v>565300</v>
       </c>
       <c r="H102" s="3">
-        <v>513100</v>
+        <v>513300</v>
       </c>
       <c r="I102" s="3">
-        <v>196100</v>
+        <v>196200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -721,10 +721,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>906800</v>
+        <v>907100</v>
       </c>
       <c r="E8" s="3">
-        <v>422000</v>
+        <v>422100</v>
       </c>
       <c r="F8" s="3">
         <v>135300</v>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>753100</v>
+        <v>753300</v>
       </c>
       <c r="E10" s="3">
         <v>333300</v>
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>102600</v>
+        <v>102700</v>
       </c>
       <c r="E12" s="3">
         <v>65400</v>
@@ -1002,13 +1002,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>501200</v>
+        <v>501300</v>
       </c>
       <c r="E17" s="3">
         <v>234900</v>
       </c>
       <c r="F17" s="3">
-        <v>111300</v>
+        <v>111400</v>
       </c>
       <c r="G17" s="3">
         <v>76800</v>
@@ -1038,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>405600</v>
+        <v>405700</v>
       </c>
       <c r="E18" s="3">
         <v>187100</v>
@@ -1126,10 +1126,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>410600</v>
+        <v>410700</v>
       </c>
       <c r="E21" s="3">
-        <v>188300</v>
+        <v>188400</v>
       </c>
       <c r="F21" s="3">
         <v>24800</v>
@@ -1198,10 +1198,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>406000</v>
+        <v>406100</v>
       </c>
       <c r="E23" s="3">
-        <v>184800</v>
+        <v>184900</v>
       </c>
       <c r="F23" s="3">
         <v>22700</v>
@@ -1309,7 +1309,7 @@
         <v>358200</v>
       </c>
       <c r="E26" s="3">
-        <v>168900</v>
+        <v>169000</v>
       </c>
       <c r="F26" s="3">
         <v>21100</v>
@@ -1345,7 +1345,7 @@
         <v>358200</v>
       </c>
       <c r="E27" s="3">
-        <v>168900</v>
+        <v>169000</v>
       </c>
       <c r="F27" s="3">
         <v>18200</v>
@@ -1561,7 +1561,7 @@
         <v>358200</v>
       </c>
       <c r="E33" s="3">
-        <v>168900</v>
+        <v>169000</v>
       </c>
       <c r="F33" s="3">
         <v>18200</v>
@@ -1633,7 +1633,7 @@
         <v>358200</v>
       </c>
       <c r="E35" s="3">
-        <v>168900</v>
+        <v>169000</v>
       </c>
       <c r="F35" s="3">
         <v>18200</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7556400</v>
+        <v>7558200</v>
       </c>
       <c r="E41" s="3">
-        <v>5546800</v>
+        <v>5548200</v>
       </c>
       <c r="F41" s="3">
-        <v>1899400</v>
+        <v>1899900</v>
       </c>
       <c r="G41" s="3">
-        <v>1527800</v>
+        <v>1528100</v>
       </c>
       <c r="H41" s="3">
-        <v>962500</v>
+        <v>962700</v>
       </c>
       <c r="I41" s="3">
-        <v>449200</v>
+        <v>449300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>162600</v>
+        <v>162700</v>
       </c>
       <c r="E42" s="3">
         <v>38200</v>
@@ -1811,16 +1811,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5105900</v>
+        <v>5107100</v>
       </c>
       <c r="E43" s="3">
-        <v>1034100</v>
+        <v>1034300</v>
       </c>
       <c r="F43" s="3">
         <v>236600</v>
       </c>
       <c r="G43" s="3">
-        <v>106600</v>
+        <v>106700</v>
       </c>
       <c r="H43" s="3">
         <v>51000</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12834500</v>
+        <v>12837500</v>
       </c>
       <c r="E46" s="3">
-        <v>6620600</v>
+        <v>6622200</v>
       </c>
       <c r="F46" s="3">
-        <v>2149500</v>
+        <v>2150000</v>
       </c>
       <c r="G46" s="3">
-        <v>1643100</v>
+        <v>1643500</v>
       </c>
       <c r="H46" s="3">
-        <v>1013900</v>
+        <v>1014200</v>
       </c>
       <c r="I46" s="3">
-        <v>553500</v>
+        <v>553700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1958,16 +1958,16 @@
         <v>3000</v>
       </c>
       <c r="E47" s="3">
-        <v>2399300</v>
+        <v>2399900</v>
       </c>
       <c r="F47" s="3">
-        <v>534600</v>
+        <v>534800</v>
       </c>
       <c r="G47" s="3">
-        <v>393400</v>
+        <v>393500</v>
       </c>
       <c r="H47" s="3">
-        <v>370600</v>
+        <v>370700</v>
       </c>
       <c r="I47" s="3">
         <v>16800</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12941100</v>
+        <v>12944100</v>
       </c>
       <c r="E54" s="3">
-        <v>9092000</v>
+        <v>9094100</v>
       </c>
       <c r="F54" s="3">
-        <v>2727400</v>
+        <v>2728100</v>
       </c>
       <c r="G54" s="3">
-        <v>2047200</v>
+        <v>2047700</v>
       </c>
       <c r="H54" s="3">
-        <v>1392200</v>
+        <v>1392600</v>
       </c>
       <c r="I54" s="3">
-        <v>575800</v>
+        <v>575900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8554500</v>
+        <v>8556500</v>
       </c>
       <c r="E57" s="3">
-        <v>6489800</v>
+        <v>6491400</v>
       </c>
       <c r="F57" s="3">
-        <v>2156900</v>
+        <v>2157400</v>
       </c>
       <c r="G57" s="3">
-        <v>1685600</v>
+        <v>1686000</v>
       </c>
       <c r="H57" s="3">
-        <v>1064600</v>
+        <v>1064900</v>
       </c>
       <c r="I57" s="3">
-        <v>528900</v>
+        <v>529000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,13 +2311,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1379700</v>
+        <v>1380000</v>
       </c>
       <c r="E58" s="3">
-        <v>1393800</v>
+        <v>1394100</v>
       </c>
       <c r="F58" s="3">
-        <v>187200</v>
+        <v>187300</v>
       </c>
       <c r="G58" s="3">
         <v>200900</v>
@@ -2347,10 +2347,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>310000</v>
+        <v>310100</v>
       </c>
       <c r="E59" s="3">
-        <v>121200</v>
+        <v>121300</v>
       </c>
       <c r="F59" s="3">
         <v>36500</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10244200</v>
+        <v>10246600</v>
       </c>
       <c r="E60" s="3">
-        <v>8004900</v>
+        <v>8006700</v>
       </c>
       <c r="F60" s="3">
-        <v>2380600</v>
+        <v>2381200</v>
       </c>
       <c r="G60" s="3">
-        <v>1907000</v>
+        <v>1907400</v>
       </c>
       <c r="H60" s="3">
-        <v>1271100</v>
+        <v>1271400</v>
       </c>
       <c r="I60" s="3">
-        <v>554000</v>
+        <v>554100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10266500</v>
+        <v>10268900</v>
       </c>
       <c r="E66" s="3">
-        <v>8033200</v>
+        <v>8035100</v>
       </c>
       <c r="F66" s="3">
-        <v>2402600</v>
+        <v>2403200</v>
       </c>
       <c r="G66" s="3">
-        <v>1907000</v>
+        <v>1907400</v>
       </c>
       <c r="H66" s="3">
-        <v>1271100</v>
+        <v>1271400</v>
       </c>
       <c r="I66" s="3">
-        <v>558000</v>
+        <v>558200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2735,7 +2735,7 @@
         <v>159400</v>
       </c>
       <c r="H70" s="3">
-        <v>150800</v>
+        <v>150900</v>
       </c>
       <c r="I70" s="3">
         <v>42000</v>
@@ -2795,7 +2795,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>529200</v>
+        <v>529400</v>
       </c>
       <c r="E72" s="3">
         <v>171100</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2674600</v>
+        <v>2675200</v>
       </c>
       <c r="E76" s="3">
-        <v>1058800</v>
+        <v>1059100</v>
       </c>
       <c r="F76" s="3">
-        <v>324800</v>
+        <v>324900</v>
       </c>
       <c r="G76" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="H76" s="3">
-        <v>-29600</v>
+        <v>-29700</v>
       </c>
       <c r="I76" s="3">
         <v>-24300</v>
@@ -3055,7 +3055,7 @@
         <v>358200</v>
       </c>
       <c r="E81" s="3">
-        <v>168900</v>
+        <v>169000</v>
       </c>
       <c r="F81" s="3">
         <v>18200</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>766200</v>
+        <v>766400</v>
       </c>
       <c r="E89" s="3">
-        <v>2607200</v>
+        <v>2607800</v>
       </c>
       <c r="F89" s="3">
-        <v>251000</v>
+        <v>251100</v>
       </c>
       <c r="G89" s="3">
-        <v>569700</v>
+        <v>569900</v>
       </c>
       <c r="H89" s="3">
         <v>236500</v>
       </c>
       <c r="I89" s="3">
-        <v>178100</v>
+        <v>178200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3489,7 +3489,7 @@
         <v>-20400</v>
       </c>
       <c r="G94" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="H94" s="3">
         <v>-700</v>
@@ -3676,10 +3676,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1345100</v>
+        <v>1345500</v>
       </c>
       <c r="E100" s="3">
-        <v>1071500</v>
+        <v>1071700</v>
       </c>
       <c r="F100" s="3">
         <v>146800</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2009900</v>
+        <v>2010300</v>
       </c>
       <c r="E102" s="3">
-        <v>3647400</v>
+        <v>3648300</v>
       </c>
       <c r="F102" s="3">
-        <v>371700</v>
+        <v>371800</v>
       </c>
       <c r="G102" s="3">
-        <v>565300</v>
+        <v>565400</v>
       </c>
       <c r="H102" s="3">
-        <v>513300</v>
+        <v>513400</v>
       </c>
       <c r="I102" s="3">
         <v>196200</v>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -721,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>907100</v>
+        <v>906500</v>
       </c>
       <c r="E8" s="3">
-        <v>422100</v>
+        <v>421800</v>
       </c>
       <c r="F8" s="3">
-        <v>135300</v>
+        <v>135200</v>
       </c>
       <c r="G8" s="3">
         <v>103400</v>
@@ -793,10 +793,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>753300</v>
+        <v>752800</v>
       </c>
       <c r="E10" s="3">
-        <v>333300</v>
+        <v>333100</v>
       </c>
       <c r="F10" s="3">
         <v>99400</v>
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>102700</v>
+        <v>102600</v>
       </c>
       <c r="E12" s="3">
         <v>65400</v>
@@ -854,7 +854,7 @@
         <v>33400</v>
       </c>
       <c r="G12" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="H12" s="3">
         <v>12200</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>501300</v>
+        <v>501000</v>
       </c>
       <c r="E17" s="3">
-        <v>234900</v>
+        <v>234800</v>
       </c>
       <c r="F17" s="3">
-        <v>111400</v>
+        <v>111300</v>
       </c>
       <c r="G17" s="3">
         <v>76800</v>
       </c>
       <c r="H17" s="3">
-        <v>38700</v>
+        <v>38600</v>
       </c>
       <c r="I17" s="3">
         <v>25200</v>
@@ -1038,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>405700</v>
+        <v>405500</v>
       </c>
       <c r="E18" s="3">
-        <v>187100</v>
+        <v>187000</v>
       </c>
       <c r="F18" s="3">
-        <v>24000</v>
+        <v>23900</v>
       </c>
       <c r="G18" s="3">
         <v>26600</v>
@@ -1126,16 +1126,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>410700</v>
+        <v>410400</v>
       </c>
       <c r="E21" s="3">
-        <v>188400</v>
+        <v>188200</v>
       </c>
       <c r="F21" s="3">
         <v>24800</v>
       </c>
       <c r="G21" s="3">
-        <v>26700</v>
+        <v>26600</v>
       </c>
       <c r="H21" s="3">
         <v>1000</v>
@@ -1198,10 +1198,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>406100</v>
+        <v>405800</v>
       </c>
       <c r="E23" s="3">
-        <v>184900</v>
+        <v>184800</v>
       </c>
       <c r="F23" s="3">
         <v>22700</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>358200</v>
+        <v>358000</v>
       </c>
       <c r="E26" s="3">
-        <v>169000</v>
+        <v>168900</v>
       </c>
       <c r="F26" s="3">
         <v>21100</v>
       </c>
       <c r="G26" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="H26" s="3">
         <v>-1000</v>
       </c>
       <c r="I26" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>358200</v>
+        <v>358000</v>
       </c>
       <c r="E27" s="3">
-        <v>169000</v>
+        <v>168900</v>
       </c>
       <c r="F27" s="3">
         <v>18200</v>
@@ -1558,10 +1558,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>358200</v>
+        <v>358000</v>
       </c>
       <c r="E33" s="3">
-        <v>169000</v>
+        <v>168900</v>
       </c>
       <c r="F33" s="3">
         <v>18200</v>
@@ -1630,10 +1630,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>358200</v>
+        <v>358000</v>
       </c>
       <c r="E35" s="3">
-        <v>169000</v>
+        <v>168900</v>
       </c>
       <c r="F35" s="3">
         <v>18200</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7558200</v>
+        <v>7553500</v>
       </c>
       <c r="E41" s="3">
-        <v>5548200</v>
+        <v>5544700</v>
       </c>
       <c r="F41" s="3">
-        <v>1899900</v>
+        <v>1898700</v>
       </c>
       <c r="G41" s="3">
-        <v>1528100</v>
+        <v>1527200</v>
       </c>
       <c r="H41" s="3">
-        <v>962700</v>
+        <v>962100</v>
       </c>
       <c r="I41" s="3">
-        <v>449300</v>
+        <v>449000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,13 +1775,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>162700</v>
+        <v>162600</v>
       </c>
       <c r="E42" s="3">
         <v>38200</v>
       </c>
       <c r="F42" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="G42" s="3">
         <v>7600</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5107100</v>
+        <v>5103900</v>
       </c>
       <c r="E43" s="3">
-        <v>1034300</v>
+        <v>1033700</v>
       </c>
       <c r="F43" s="3">
-        <v>236600</v>
+        <v>236500</v>
       </c>
       <c r="G43" s="3">
-        <v>106700</v>
+        <v>106600</v>
       </c>
       <c r="H43" s="3">
         <v>51000</v>
       </c>
       <c r="I43" s="3">
-        <v>103800</v>
+        <v>103700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12837500</v>
+        <v>12829500</v>
       </c>
       <c r="E46" s="3">
-        <v>6622200</v>
+        <v>6618000</v>
       </c>
       <c r="F46" s="3">
-        <v>2150000</v>
+        <v>2148700</v>
       </c>
       <c r="G46" s="3">
-        <v>1643500</v>
+        <v>1642400</v>
       </c>
       <c r="H46" s="3">
-        <v>1014200</v>
+        <v>1013500</v>
       </c>
       <c r="I46" s="3">
-        <v>553700</v>
+        <v>553300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1958,16 +1958,16 @@
         <v>3000</v>
       </c>
       <c r="E47" s="3">
-        <v>2399900</v>
+        <v>2398400</v>
       </c>
       <c r="F47" s="3">
-        <v>534800</v>
+        <v>534400</v>
       </c>
       <c r="G47" s="3">
-        <v>393500</v>
+        <v>393300</v>
       </c>
       <c r="H47" s="3">
-        <v>370700</v>
+        <v>370500</v>
       </c>
       <c r="I47" s="3">
         <v>16800</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12944100</v>
+        <v>12936000</v>
       </c>
       <c r="E54" s="3">
-        <v>9094100</v>
+        <v>9088400</v>
       </c>
       <c r="F54" s="3">
-        <v>2728100</v>
+        <v>2726400</v>
       </c>
       <c r="G54" s="3">
-        <v>2047700</v>
+        <v>2046400</v>
       </c>
       <c r="H54" s="3">
-        <v>1392600</v>
+        <v>1391700</v>
       </c>
       <c r="I54" s="3">
-        <v>575900</v>
+        <v>575500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8556500</v>
+        <v>8551100</v>
       </c>
       <c r="E57" s="3">
-        <v>6491400</v>
+        <v>6487300</v>
       </c>
       <c r="F57" s="3">
-        <v>2157400</v>
+        <v>2156000</v>
       </c>
       <c r="G57" s="3">
-        <v>1686000</v>
+        <v>1684900</v>
       </c>
       <c r="H57" s="3">
-        <v>1064900</v>
+        <v>1064200</v>
       </c>
       <c r="I57" s="3">
-        <v>529000</v>
+        <v>528700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1380000</v>
+        <v>1379100</v>
       </c>
       <c r="E58" s="3">
-        <v>1394100</v>
+        <v>1393200</v>
       </c>
       <c r="F58" s="3">
-        <v>187300</v>
+        <v>187200</v>
       </c>
       <c r="G58" s="3">
-        <v>200900</v>
+        <v>200800</v>
       </c>
       <c r="H58" s="3">
-        <v>196600</v>
+        <v>196500</v>
       </c>
       <c r="I58" s="3">
         <v>20500</v>
@@ -2347,10 +2347,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>310100</v>
+        <v>309900</v>
       </c>
       <c r="E59" s="3">
-        <v>121300</v>
+        <v>121200</v>
       </c>
       <c r="F59" s="3">
         <v>36500</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10246600</v>
+        <v>10240200</v>
       </c>
       <c r="E60" s="3">
-        <v>8006700</v>
+        <v>8001700</v>
       </c>
       <c r="F60" s="3">
-        <v>2381200</v>
+        <v>2379700</v>
       </c>
       <c r="G60" s="3">
-        <v>1907400</v>
+        <v>1906200</v>
       </c>
       <c r="H60" s="3">
-        <v>1271400</v>
+        <v>1270600</v>
       </c>
       <c r="I60" s="3">
-        <v>554100</v>
+        <v>553700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10268900</v>
+        <v>10262400</v>
       </c>
       <c r="E66" s="3">
-        <v>8035100</v>
+        <v>8030000</v>
       </c>
       <c r="F66" s="3">
-        <v>2403200</v>
+        <v>2401700</v>
       </c>
       <c r="G66" s="3">
-        <v>1907400</v>
+        <v>1906200</v>
       </c>
       <c r="H66" s="3">
-        <v>1271400</v>
+        <v>1270600</v>
       </c>
       <c r="I66" s="3">
-        <v>558200</v>
+        <v>557800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>159400</v>
+        <v>159300</v>
       </c>
       <c r="H70" s="3">
-        <v>150900</v>
+        <v>150800</v>
       </c>
       <c r="I70" s="3">
-        <v>42000</v>
+        <v>41900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,10 +2795,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>529400</v>
+        <v>529000</v>
       </c>
       <c r="E72" s="3">
-        <v>171100</v>
+        <v>171000</v>
       </c>
       <c r="F72" s="3">
         <v>2100</v>
@@ -2939,13 +2939,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2675200</v>
+        <v>2673600</v>
       </c>
       <c r="E76" s="3">
-        <v>1059100</v>
+        <v>1058400</v>
       </c>
       <c r="F76" s="3">
-        <v>324900</v>
+        <v>324700</v>
       </c>
       <c r="G76" s="3">
         <v>-19100</v>
@@ -2954,7 +2954,7 @@
         <v>-29700</v>
       </c>
       <c r="I76" s="3">
-        <v>-24300</v>
+        <v>-24200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,10 +3052,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>358200</v>
+        <v>358000</v>
       </c>
       <c r="E81" s="3">
-        <v>169000</v>
+        <v>168900</v>
       </c>
       <c r="F81" s="3">
         <v>18200</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>766400</v>
+        <v>765900</v>
       </c>
       <c r="E89" s="3">
-        <v>2607800</v>
+        <v>2606200</v>
       </c>
       <c r="F89" s="3">
-        <v>251100</v>
+        <v>250900</v>
       </c>
       <c r="G89" s="3">
-        <v>569900</v>
+        <v>569500</v>
       </c>
       <c r="H89" s="3">
-        <v>236500</v>
+        <v>236400</v>
       </c>
       <c r="I89" s="3">
-        <v>178200</v>
+        <v>178100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3489,7 +3489,7 @@
         <v>-20400</v>
       </c>
       <c r="G94" s="3">
-        <v>-10000</v>
+        <v>-9900</v>
       </c>
       <c r="H94" s="3">
         <v>-700</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1345500</v>
+        <v>1344600</v>
       </c>
       <c r="E100" s="3">
-        <v>1071700</v>
+        <v>1071000</v>
       </c>
       <c r="F100" s="3">
-        <v>146800</v>
+        <v>146700</v>
       </c>
       <c r="G100" s="3">
         <v>4500</v>
       </c>
       <c r="H100" s="3">
-        <v>274800</v>
+        <v>274700</v>
       </c>
       <c r="I100" s="3">
         <v>18800</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2010300</v>
+        <v>2009100</v>
       </c>
       <c r="E102" s="3">
-        <v>3648300</v>
+        <v>3646000</v>
       </c>
       <c r="F102" s="3">
-        <v>371800</v>
+        <v>371500</v>
       </c>
       <c r="G102" s="3">
-        <v>565400</v>
+        <v>565100</v>
       </c>
       <c r="H102" s="3">
-        <v>513400</v>
+        <v>513100</v>
       </c>
       <c r="I102" s="3">
-        <v>196200</v>
+        <v>196100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,33 +714,36 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>906500</v>
+        <v>972800</v>
       </c>
       <c r="E8" s="3">
-        <v>421800</v>
+        <v>909100</v>
       </c>
       <c r="F8" s="3">
-        <v>135200</v>
+        <v>423000</v>
       </c>
       <c r="G8" s="3">
-        <v>103400</v>
+        <v>135600</v>
       </c>
       <c r="H8" s="3">
-        <v>39700</v>
+        <v>103700</v>
       </c>
       <c r="I8" s="3">
+        <v>39800</v>
+      </c>
+      <c r="J8" s="3">
         <v>11100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>153700</v>
+        <v>127300</v>
       </c>
       <c r="E9" s="3">
-        <v>88700</v>
+        <v>154100</v>
       </c>
       <c r="F9" s="3">
-        <v>35900</v>
+        <v>88900</v>
       </c>
       <c r="G9" s="3">
-        <v>31800</v>
+        <v>36000</v>
       </c>
       <c r="H9" s="3">
+        <v>31900</v>
+      </c>
+      <c r="I9" s="3">
         <v>13900</v>
       </c>
-      <c r="I9" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>5800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,32 +792,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>752800</v>
+        <v>845600</v>
       </c>
       <c r="E10" s="3">
-        <v>333100</v>
+        <v>755000</v>
       </c>
       <c r="F10" s="3">
-        <v>99400</v>
+        <v>334100</v>
       </c>
       <c r="G10" s="3">
-        <v>71600</v>
+        <v>99600</v>
       </c>
       <c r="H10" s="3">
-        <v>25800</v>
+        <v>71800</v>
       </c>
       <c r="I10" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>25900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,32 +851,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>102600</v>
+        <v>156100</v>
       </c>
       <c r="E12" s="3">
-        <v>65400</v>
+        <v>102900</v>
       </c>
       <c r="F12" s="3">
-        <v>33400</v>
+        <v>65600</v>
       </c>
       <c r="G12" s="3">
-        <v>19200</v>
+        <v>33500</v>
       </c>
       <c r="H12" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I12" s="3">
         <v>12200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,9 +965,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>501000</v>
+        <v>516800</v>
       </c>
       <c r="E17" s="3">
-        <v>234800</v>
+        <v>502500</v>
       </c>
       <c r="F17" s="3">
-        <v>111300</v>
+        <v>235500</v>
       </c>
       <c r="G17" s="3">
-        <v>76800</v>
+        <v>111600</v>
       </c>
       <c r="H17" s="3">
-        <v>38600</v>
+        <v>77000</v>
       </c>
       <c r="I17" s="3">
-        <v>25200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>38800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,33 +1057,36 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>405500</v>
+        <v>456000</v>
       </c>
       <c r="E18" s="3">
-        <v>187000</v>
+        <v>406700</v>
       </c>
       <c r="F18" s="3">
-        <v>23900</v>
+        <v>187500</v>
       </c>
       <c r="G18" s="3">
-        <v>26600</v>
+        <v>24000</v>
       </c>
       <c r="H18" s="3">
+        <v>26700</v>
+      </c>
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,32 +1116,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,33 +1152,36 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>410400</v>
+        <v>436100</v>
       </c>
       <c r="E21" s="3">
-        <v>188200</v>
+        <v>411600</v>
       </c>
       <c r="F21" s="3">
+        <v>188800</v>
+      </c>
+      <c r="G21" s="3">
         <v>24800</v>
       </c>
-      <c r="G21" s="3">
-        <v>26600</v>
-      </c>
       <c r="H21" s="3">
+        <v>26700</v>
+      </c>
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,9 +1191,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,32 +1230,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>405800</v>
+        <v>429100</v>
       </c>
       <c r="E23" s="3">
-        <v>184800</v>
+        <v>407000</v>
       </c>
       <c r="F23" s="3">
+        <v>185300</v>
+      </c>
+      <c r="G23" s="3">
         <v>22700</v>
       </c>
-      <c r="G23" s="3">
-        <v>25600</v>
-      </c>
       <c r="H23" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>-14300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,33 +1269,36 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47800</v>
+        <v>52900</v>
       </c>
       <c r="E24" s="3">
+        <v>47900</v>
+      </c>
+      <c r="F24" s="3">
         <v>15900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
-        <v>7900</v>
-      </c>
       <c r="H24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>358000</v>
+        <v>376200</v>
       </c>
       <c r="E26" s="3">
-        <v>168900</v>
+        <v>359100</v>
       </c>
       <c r="F26" s="3">
-        <v>21100</v>
+        <v>169400</v>
       </c>
       <c r="G26" s="3">
-        <v>17600</v>
+        <v>21200</v>
       </c>
       <c r="H26" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>-12600</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>358000</v>
+        <v>374000</v>
       </c>
       <c r="E27" s="3">
-        <v>168900</v>
+        <v>359100</v>
       </c>
       <c r="F27" s="3">
-        <v>18200</v>
+        <v>169400</v>
       </c>
       <c r="G27" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H27" s="3">
         <v>4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7100</v>
       </c>
-      <c r="I27" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>-14900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,33 +1581,36 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>358000</v>
+        <v>374000</v>
       </c>
       <c r="E33" s="3">
-        <v>168900</v>
+        <v>359100</v>
       </c>
       <c r="F33" s="3">
-        <v>18200</v>
+        <v>169400</v>
       </c>
       <c r="G33" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H33" s="3">
         <v>4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7100</v>
       </c>
-      <c r="I33" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>-14900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>358000</v>
+        <v>374000</v>
       </c>
       <c r="E35" s="3">
-        <v>168900</v>
+        <v>359100</v>
       </c>
       <c r="F35" s="3">
-        <v>18200</v>
+        <v>169400</v>
       </c>
       <c r="G35" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H35" s="3">
         <v>4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7100</v>
       </c>
-      <c r="I35" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>-14900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7553500</v>
+        <v>7118600</v>
       </c>
       <c r="E41" s="3">
-        <v>5544700</v>
+        <v>7575400</v>
       </c>
       <c r="F41" s="3">
-        <v>1898700</v>
+        <v>5560800</v>
       </c>
       <c r="G41" s="3">
-        <v>1527200</v>
+        <v>1904200</v>
       </c>
       <c r="H41" s="3">
-        <v>962100</v>
+        <v>1531600</v>
       </c>
       <c r="I41" s="3">
-        <v>449000</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>964900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>450300</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,35 +1854,38 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>162600</v>
+        <v>91100</v>
       </c>
       <c r="E42" s="3">
-        <v>38200</v>
+        <v>163000</v>
       </c>
       <c r="F42" s="3">
-        <v>11900</v>
+        <v>38300</v>
       </c>
       <c r="G42" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H42" s="3">
         <v>7600</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1804,32 +1893,35 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5103900</v>
+        <v>4666600</v>
       </c>
       <c r="E43" s="3">
-        <v>1033700</v>
+        <v>5118700</v>
       </c>
       <c r="F43" s="3">
-        <v>236500</v>
+        <v>1036700</v>
       </c>
       <c r="G43" s="3">
-        <v>106600</v>
+        <v>237200</v>
       </c>
       <c r="H43" s="3">
-        <v>51000</v>
+        <v>106900</v>
       </c>
       <c r="I43" s="3">
-        <v>103700</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>51100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>104000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,33 +1971,36 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E45" s="3">
         <v>9600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,35 +2010,38 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12829500</v>
+        <v>11890800</v>
       </c>
       <c r="E46" s="3">
-        <v>6618000</v>
+        <v>12866800</v>
       </c>
       <c r="F46" s="3">
-        <v>2148700</v>
+        <v>6637200</v>
       </c>
       <c r="G46" s="3">
-        <v>1642400</v>
+        <v>2154900</v>
       </c>
       <c r="H46" s="3">
-        <v>1013500</v>
+        <v>1647200</v>
       </c>
       <c r="I46" s="3">
-        <v>553300</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
+        <v>1016500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>554900</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -1948,32 +2049,35 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E47" s="3">
         <v>3000</v>
       </c>
-      <c r="E47" s="3">
-        <v>2398400</v>
-      </c>
       <c r="F47" s="3">
-        <v>534400</v>
+        <v>2405300</v>
       </c>
       <c r="G47" s="3">
-        <v>393300</v>
+        <v>536000</v>
       </c>
       <c r="H47" s="3">
-        <v>370500</v>
+        <v>394400</v>
       </c>
       <c r="I47" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>371600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>16900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1984,32 +2088,35 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53500</v>
+        <v>43800</v>
       </c>
       <c r="E48" s="3">
-        <v>40400</v>
+        <v>53600</v>
       </c>
       <c r="F48" s="3">
-        <v>35600</v>
+        <v>40500</v>
       </c>
       <c r="G48" s="3">
+        <v>35700</v>
+      </c>
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>1100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2020,23 +2127,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2044,8 +2154,8 @@
       <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,33 +2244,36 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>47900</v>
+        <v>97700</v>
       </c>
       <c r="E52" s="3">
-        <v>30400</v>
+        <v>48000</v>
       </c>
       <c r="F52" s="3">
+        <v>30500</v>
+      </c>
+      <c r="G52" s="3">
         <v>6700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12936000</v>
+        <v>12074600</v>
       </c>
       <c r="E54" s="3">
-        <v>9088400</v>
+        <v>12973600</v>
       </c>
       <c r="F54" s="3">
-        <v>2726400</v>
+        <v>9114800</v>
       </c>
       <c r="G54" s="3">
-        <v>2046400</v>
+        <v>2734300</v>
       </c>
       <c r="H54" s="3">
-        <v>1391700</v>
+        <v>2052400</v>
       </c>
       <c r="I54" s="3">
-        <v>575500</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>1395700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>577200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,31 +2398,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8551100</v>
+        <v>8825900</v>
       </c>
       <c r="E57" s="3">
-        <v>6487300</v>
+        <v>8576000</v>
       </c>
       <c r="F57" s="3">
-        <v>2156000</v>
+        <v>6506100</v>
       </c>
       <c r="G57" s="3">
-        <v>1684900</v>
+        <v>2162300</v>
       </c>
       <c r="H57" s="3">
-        <v>1064200</v>
+        <v>1689800</v>
       </c>
       <c r="I57" s="3">
-        <v>528700</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>1067300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>530200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2304,32 +2434,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1379100</v>
+        <v>316900</v>
       </c>
       <c r="E58" s="3">
-        <v>1393200</v>
+        <v>1383100</v>
       </c>
       <c r="F58" s="3">
-        <v>187200</v>
+        <v>1397300</v>
       </c>
       <c r="G58" s="3">
-        <v>200800</v>
+        <v>187700</v>
       </c>
       <c r="H58" s="3">
-        <v>196500</v>
+        <v>201400</v>
       </c>
       <c r="I58" s="3">
-        <v>20500</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>197100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>20600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2340,32 +2473,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>309900</v>
+        <v>251600</v>
       </c>
       <c r="E59" s="3">
-        <v>121200</v>
+        <v>310800</v>
       </c>
       <c r="F59" s="3">
-        <v>36500</v>
+        <v>121500</v>
       </c>
       <c r="G59" s="3">
+        <v>36600</v>
+      </c>
+      <c r="H59" s="3">
         <v>20500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9900</v>
       </c>
-      <c r="I59" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>4600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,35 +2512,38 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10240200</v>
+        <v>9394400</v>
       </c>
       <c r="E60" s="3">
-        <v>8001700</v>
+        <v>10269900</v>
       </c>
       <c r="F60" s="3">
-        <v>2379700</v>
+        <v>8025000</v>
       </c>
       <c r="G60" s="3">
-        <v>1906200</v>
+        <v>2386600</v>
       </c>
       <c r="H60" s="3">
-        <v>1270600</v>
+        <v>1911800</v>
       </c>
       <c r="I60" s="3">
-        <v>553700</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
+        <v>1274300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>555400</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -2412,9 +2551,12 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2434,11 +2576,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>4100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2448,24 +2590,27 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E62" s="3">
         <v>22300</v>
       </c>
-      <c r="E62" s="3">
-        <v>28300</v>
-      </c>
       <c r="F62" s="3">
+        <v>28400</v>
+      </c>
+      <c r="G62" s="3">
         <v>22000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2620,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10262400</v>
+        <v>9409100</v>
       </c>
       <c r="E66" s="3">
-        <v>8030000</v>
+        <v>10292300</v>
       </c>
       <c r="F66" s="3">
-        <v>2401700</v>
+        <v>8053400</v>
       </c>
       <c r="G66" s="3">
-        <v>1906200</v>
+        <v>2408600</v>
       </c>
       <c r="H66" s="3">
-        <v>1270600</v>
+        <v>1911800</v>
       </c>
       <c r="I66" s="3">
-        <v>557800</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>1274300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>559400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>159300</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>150800</v>
+        <v>159800</v>
       </c>
       <c r="I70" s="3">
-        <v>41900</v>
+        <v>151200</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>42100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,33 +2958,36 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>529000</v>
+        <v>904500</v>
       </c>
       <c r="E72" s="3">
-        <v>171000</v>
+        <v>530600</v>
       </c>
       <c r="F72" s="3">
+        <v>171500</v>
+      </c>
+      <c r="G72" s="3">
         <v>2100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19000</v>
       </c>
-      <c r="H72" s="3">
-        <v>-29400</v>
-      </c>
       <c r="I72" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-23900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2673600</v>
+        <v>2665500</v>
       </c>
       <c r="E76" s="3">
-        <v>1058400</v>
+        <v>2681300</v>
       </c>
       <c r="F76" s="3">
-        <v>324700</v>
+        <v>1061500</v>
       </c>
       <c r="G76" s="3">
-        <v>-19100</v>
+        <v>325600</v>
       </c>
       <c r="H76" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="I76" s="3">
         <v>-29700</v>
       </c>
-      <c r="I76" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>-24300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>358000</v>
+        <v>374000</v>
       </c>
       <c r="E81" s="3">
-        <v>168900</v>
+        <v>359100</v>
       </c>
       <c r="F81" s="3">
-        <v>18200</v>
+        <v>169400</v>
       </c>
       <c r="G81" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H81" s="3">
         <v>4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7100</v>
       </c>
-      <c r="I81" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>-14900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,31 +3295,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="E83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>765900</v>
+        <v>444000</v>
       </c>
       <c r="E89" s="3">
-        <v>2606200</v>
+        <v>768100</v>
       </c>
       <c r="F89" s="3">
-        <v>250900</v>
+        <v>2613800</v>
       </c>
       <c r="G89" s="3">
-        <v>569500</v>
+        <v>251600</v>
       </c>
       <c r="H89" s="3">
-        <v>236400</v>
+        <v>571200</v>
       </c>
       <c r="I89" s="3">
-        <v>178100</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>237100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>178600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,32 +3585,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,33 +3699,36 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-122800</v>
+        <v>12000</v>
       </c>
       <c r="E94" s="3">
-        <v>-31100</v>
+        <v>-123100</v>
       </c>
       <c r="F94" s="3">
-        <v>-20400</v>
+        <v>-31200</v>
       </c>
       <c r="G94" s="3">
-        <v>-9900</v>
+        <v>-20500</v>
       </c>
       <c r="H94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1344600</v>
+        <v>-895600</v>
       </c>
       <c r="E100" s="3">
-        <v>1071000</v>
+        <v>1348500</v>
       </c>
       <c r="F100" s="3">
-        <v>146700</v>
+        <v>1074100</v>
       </c>
       <c r="G100" s="3">
-        <v>4500</v>
+        <v>147100</v>
       </c>
       <c r="H100" s="3">
-        <v>274700</v>
+        <v>4600</v>
       </c>
       <c r="I100" s="3">
-        <v>18800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>275500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>18900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,32 +3950,35 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21300</v>
+        <v>-17300</v>
       </c>
       <c r="E101" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2800</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2009100</v>
+        <v>-456900</v>
       </c>
       <c r="E102" s="3">
-        <v>3646000</v>
+        <v>2014900</v>
       </c>
       <c r="F102" s="3">
-        <v>371500</v>
+        <v>3656600</v>
       </c>
       <c r="G102" s="3">
-        <v>565100</v>
+        <v>372600</v>
       </c>
       <c r="H102" s="3">
-        <v>513100</v>
+        <v>566700</v>
       </c>
       <c r="I102" s="3">
-        <v>196100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>514600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>196700</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>972800</v>
+        <v>970900</v>
       </c>
       <c r="E8" s="3">
-        <v>909100</v>
+        <v>907300</v>
       </c>
       <c r="F8" s="3">
-        <v>423000</v>
+        <v>422200</v>
       </c>
       <c r="G8" s="3">
-        <v>135600</v>
+        <v>135400</v>
       </c>
       <c r="H8" s="3">
-        <v>103700</v>
+        <v>103500</v>
       </c>
       <c r="I8" s="3">
-        <v>39800</v>
+        <v>39700</v>
       </c>
       <c r="J8" s="3">
         <v>11100</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>127300</v>
+        <v>127000</v>
       </c>
       <c r="E9" s="3">
-        <v>154100</v>
+        <v>153800</v>
       </c>
       <c r="F9" s="3">
-        <v>88900</v>
+        <v>88700</v>
       </c>
       <c r="G9" s="3">
-        <v>36000</v>
+        <v>35900</v>
       </c>
       <c r="H9" s="3">
-        <v>31900</v>
+        <v>31800</v>
       </c>
       <c r="I9" s="3">
         <v>13900</v>
       </c>
       <c r="J9" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>845600</v>
+        <v>843900</v>
       </c>
       <c r="E10" s="3">
-        <v>755000</v>
+        <v>753500</v>
       </c>
       <c r="F10" s="3">
-        <v>334100</v>
+        <v>333400</v>
       </c>
       <c r="G10" s="3">
-        <v>99600</v>
+        <v>99400</v>
       </c>
       <c r="H10" s="3">
-        <v>71800</v>
+        <v>71600</v>
       </c>
       <c r="I10" s="3">
-        <v>25900</v>
+        <v>25800</v>
       </c>
       <c r="J10" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -858,13 +858,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>156100</v>
+        <v>155800</v>
       </c>
       <c r="E12" s="3">
-        <v>102900</v>
+        <v>102700</v>
       </c>
       <c r="F12" s="3">
-        <v>65600</v>
+        <v>65500</v>
       </c>
       <c r="G12" s="3">
         <v>33500</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>516800</v>
+        <v>515800</v>
       </c>
       <c r="E17" s="3">
-        <v>502500</v>
+        <v>501500</v>
       </c>
       <c r="F17" s="3">
-        <v>235500</v>
+        <v>235000</v>
       </c>
       <c r="G17" s="3">
-        <v>111600</v>
+        <v>111400</v>
       </c>
       <c r="H17" s="3">
-        <v>77000</v>
+        <v>76800</v>
       </c>
       <c r="I17" s="3">
-        <v>38800</v>
+        <v>38700</v>
       </c>
       <c r="J17" s="3">
-        <v>25300</v>
+        <v>25200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,19 +1067,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>456000</v>
+        <v>455100</v>
       </c>
       <c r="E18" s="3">
-        <v>406700</v>
+        <v>405900</v>
       </c>
       <c r="F18" s="3">
-        <v>187500</v>
+        <v>187200</v>
       </c>
       <c r="G18" s="3">
         <v>24000</v>
       </c>
       <c r="H18" s="3">
-        <v>26700</v>
+        <v>26600</v>
       </c>
       <c r="I18" s="3">
         <v>1100</v>
@@ -1123,7 +1123,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26900</v>
+        <v>-26800</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1162,13 +1162,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>436100</v>
+        <v>435300</v>
       </c>
       <c r="E21" s="3">
-        <v>411600</v>
+        <v>410800</v>
       </c>
       <c r="F21" s="3">
-        <v>188800</v>
+        <v>188400</v>
       </c>
       <c r="G21" s="3">
         <v>24800</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>429100</v>
+        <v>428300</v>
       </c>
       <c r="E23" s="3">
-        <v>407000</v>
+        <v>406200</v>
       </c>
       <c r="F23" s="3">
-        <v>185300</v>
+        <v>184900</v>
       </c>
       <c r="G23" s="3">
         <v>22700</v>
       </c>
       <c r="H23" s="3">
-        <v>25700</v>
+        <v>25600</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
       </c>
       <c r="J23" s="3">
-        <v>-14300</v>
+        <v>-14200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,10 +1279,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52900</v>
+        <v>52800</v>
       </c>
       <c r="E24" s="3">
-        <v>47900</v>
+        <v>47800</v>
       </c>
       <c r="F24" s="3">
         <v>15900</v>
@@ -1291,7 +1291,7 @@
         <v>1600</v>
       </c>
       <c r="H24" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="I24" s="3">
         <v>1500</v>
@@ -1357,16 +1357,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>376200</v>
+        <v>375500</v>
       </c>
       <c r="E26" s="3">
-        <v>359100</v>
+        <v>358400</v>
       </c>
       <c r="F26" s="3">
-        <v>169400</v>
+        <v>169000</v>
       </c>
       <c r="G26" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="H26" s="3">
         <v>17700</v>
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>374000</v>
+        <v>373200</v>
       </c>
       <c r="E27" s="3">
-        <v>359100</v>
+        <v>358400</v>
       </c>
       <c r="F27" s="3">
-        <v>169400</v>
+        <v>169000</v>
       </c>
       <c r="G27" s="3">
         <v>18300</v>
@@ -1414,7 +1414,7 @@
         <v>-7100</v>
       </c>
       <c r="J27" s="3">
-        <v>-14900</v>
+        <v>-14800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,7 +1591,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26900</v>
+        <v>26800</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -1630,13 +1630,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>374000</v>
+        <v>373200</v>
       </c>
       <c r="E33" s="3">
-        <v>359100</v>
+        <v>358400</v>
       </c>
       <c r="F33" s="3">
-        <v>169400</v>
+        <v>169000</v>
       </c>
       <c r="G33" s="3">
         <v>18300</v>
@@ -1648,7 +1648,7 @@
         <v>-7100</v>
       </c>
       <c r="J33" s="3">
-        <v>-14900</v>
+        <v>-14800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,13 +1708,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>374000</v>
+        <v>373200</v>
       </c>
       <c r="E35" s="3">
-        <v>359100</v>
+        <v>358400</v>
       </c>
       <c r="F35" s="3">
-        <v>169400</v>
+        <v>169000</v>
       </c>
       <c r="G35" s="3">
         <v>18300</v>
@@ -1726,7 +1726,7 @@
         <v>-7100</v>
       </c>
       <c r="J35" s="3">
-        <v>-14900</v>
+        <v>-14800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7118600</v>
+        <v>7104700</v>
       </c>
       <c r="E41" s="3">
-        <v>7575400</v>
+        <v>7560600</v>
       </c>
       <c r="F41" s="3">
-        <v>5560800</v>
+        <v>5549900</v>
       </c>
       <c r="G41" s="3">
-        <v>1904200</v>
+        <v>1900500</v>
       </c>
       <c r="H41" s="3">
-        <v>1531600</v>
+        <v>1528600</v>
       </c>
       <c r="I41" s="3">
-        <v>964900</v>
+        <v>963000</v>
       </c>
       <c r="J41" s="3">
-        <v>450300</v>
+        <v>449400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,10 +1864,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>91100</v>
+        <v>90900</v>
       </c>
       <c r="E42" s="3">
-        <v>163000</v>
+        <v>162700</v>
       </c>
       <c r="F42" s="3">
         <v>38300</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4666600</v>
+        <v>4657500</v>
       </c>
       <c r="E43" s="3">
-        <v>5118700</v>
+        <v>5108700</v>
       </c>
       <c r="F43" s="3">
-        <v>1036700</v>
+        <v>1034600</v>
       </c>
       <c r="G43" s="3">
-        <v>237200</v>
+        <v>236700</v>
       </c>
       <c r="H43" s="3">
-        <v>106900</v>
+        <v>106700</v>
       </c>
       <c r="I43" s="3">
-        <v>51100</v>
+        <v>51000</v>
       </c>
       <c r="J43" s="3">
-        <v>104000</v>
+        <v>103800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,7 +1981,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="E45" s="3">
         <v>9600</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11890800</v>
+        <v>11867600</v>
       </c>
       <c r="E46" s="3">
-        <v>12866800</v>
+        <v>12841600</v>
       </c>
       <c r="F46" s="3">
-        <v>6637200</v>
+        <v>6624200</v>
       </c>
       <c r="G46" s="3">
-        <v>2154900</v>
+        <v>2150700</v>
       </c>
       <c r="H46" s="3">
-        <v>1647200</v>
+        <v>1644000</v>
       </c>
       <c r="I46" s="3">
-        <v>1016500</v>
+        <v>1014500</v>
       </c>
       <c r="J46" s="3">
-        <v>554900</v>
+        <v>553800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2065,19 +2065,19 @@
         <v>3000</v>
       </c>
       <c r="F47" s="3">
-        <v>2405300</v>
+        <v>2400600</v>
       </c>
       <c r="G47" s="3">
-        <v>536000</v>
+        <v>534900</v>
       </c>
       <c r="H47" s="3">
-        <v>394400</v>
+        <v>393600</v>
       </c>
       <c r="I47" s="3">
-        <v>371600</v>
+        <v>370800</v>
       </c>
       <c r="J47" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,16 +2098,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>43800</v>
+        <v>43700</v>
       </c>
       <c r="E48" s="3">
-        <v>53600</v>
+        <v>53500</v>
       </c>
       <c r="F48" s="3">
-        <v>40500</v>
+        <v>40400</v>
       </c>
       <c r="G48" s="3">
-        <v>35700</v>
+        <v>35600</v>
       </c>
       <c r="H48" s="3">
         <v>2900</v>
@@ -2116,7 +2116,7 @@
         <v>1700</v>
       </c>
       <c r="J48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E49" s="3">
         <v>2200</v>
@@ -2254,13 +2254,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>97700</v>
+        <v>97500</v>
       </c>
       <c r="E52" s="3">
-        <v>48000</v>
+        <v>47900</v>
       </c>
       <c r="F52" s="3">
-        <v>30500</v>
+        <v>30400</v>
       </c>
       <c r="G52" s="3">
         <v>6700</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12074600</v>
+        <v>12051000</v>
       </c>
       <c r="E54" s="3">
-        <v>12973600</v>
+        <v>12948200</v>
       </c>
       <c r="F54" s="3">
-        <v>9114800</v>
+        <v>9097000</v>
       </c>
       <c r="G54" s="3">
-        <v>2734300</v>
+        <v>2728900</v>
       </c>
       <c r="H54" s="3">
-        <v>2052400</v>
+        <v>2048300</v>
       </c>
       <c r="I54" s="3">
-        <v>1395700</v>
+        <v>1393000</v>
       </c>
       <c r="J54" s="3">
-        <v>577200</v>
+        <v>576100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8825900</v>
+        <v>8808600</v>
       </c>
       <c r="E57" s="3">
-        <v>8576000</v>
+        <v>8559200</v>
       </c>
       <c r="F57" s="3">
-        <v>6506100</v>
+        <v>6493400</v>
       </c>
       <c r="G57" s="3">
-        <v>2162300</v>
+        <v>2158000</v>
       </c>
       <c r="H57" s="3">
-        <v>1689800</v>
+        <v>1686500</v>
       </c>
       <c r="I57" s="3">
-        <v>1067300</v>
+        <v>1065200</v>
       </c>
       <c r="J57" s="3">
-        <v>530200</v>
+        <v>529200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>316900</v>
+        <v>316300</v>
       </c>
       <c r="E58" s="3">
-        <v>1383100</v>
+        <v>1380400</v>
       </c>
       <c r="F58" s="3">
-        <v>1397300</v>
+        <v>1394500</v>
       </c>
       <c r="G58" s="3">
-        <v>187700</v>
+        <v>187300</v>
       </c>
       <c r="H58" s="3">
-        <v>201400</v>
+        <v>201000</v>
       </c>
       <c r="I58" s="3">
-        <v>197100</v>
+        <v>196700</v>
       </c>
       <c r="J58" s="3">
         <v>20600</v>
@@ -2483,16 +2483,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>251600</v>
+        <v>251100</v>
       </c>
       <c r="E59" s="3">
-        <v>310800</v>
+        <v>310200</v>
       </c>
       <c r="F59" s="3">
-        <v>121500</v>
+        <v>121300</v>
       </c>
       <c r="G59" s="3">
-        <v>36600</v>
+        <v>36500</v>
       </c>
       <c r="H59" s="3">
         <v>20500</v>
@@ -2501,7 +2501,7 @@
         <v>9900</v>
       </c>
       <c r="J59" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9394400</v>
+        <v>9376000</v>
       </c>
       <c r="E60" s="3">
-        <v>10269900</v>
+        <v>10249800</v>
       </c>
       <c r="F60" s="3">
-        <v>8025000</v>
+        <v>8009300</v>
       </c>
       <c r="G60" s="3">
-        <v>2386600</v>
+        <v>2381900</v>
       </c>
       <c r="H60" s="3">
-        <v>1911800</v>
+        <v>1908000</v>
       </c>
       <c r="I60" s="3">
-        <v>1274300</v>
+        <v>1271800</v>
       </c>
       <c r="J60" s="3">
-        <v>555400</v>
+        <v>554300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2606,7 +2606,7 @@
         <v>22300</v>
       </c>
       <c r="F62" s="3">
-        <v>28400</v>
+        <v>28300</v>
       </c>
       <c r="G62" s="3">
         <v>22000</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9409100</v>
+        <v>9390700</v>
       </c>
       <c r="E66" s="3">
-        <v>10292300</v>
+        <v>10272100</v>
       </c>
       <c r="F66" s="3">
-        <v>8053400</v>
+        <v>8037600</v>
       </c>
       <c r="G66" s="3">
-        <v>2408600</v>
+        <v>2403900</v>
       </c>
       <c r="H66" s="3">
-        <v>1911800</v>
+        <v>1908000</v>
       </c>
       <c r="I66" s="3">
-        <v>1274300</v>
+        <v>1271800</v>
       </c>
       <c r="J66" s="3">
-        <v>559400</v>
+        <v>558300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>159800</v>
+        <v>159500</v>
       </c>
       <c r="I70" s="3">
-        <v>151200</v>
+        <v>150900</v>
       </c>
       <c r="J70" s="3">
-        <v>42100</v>
+        <v>42000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>904500</v>
+        <v>902800</v>
       </c>
       <c r="E72" s="3">
-        <v>530600</v>
+        <v>529500</v>
       </c>
       <c r="F72" s="3">
-        <v>171500</v>
+        <v>171200</v>
       </c>
       <c r="G72" s="3">
         <v>2100</v>
@@ -2983,7 +2983,7 @@
         <v>-19000</v>
       </c>
       <c r="I72" s="3">
-        <v>-29500</v>
+        <v>-29400</v>
       </c>
       <c r="J72" s="3">
         <v>-23900</v>
@@ -3124,16 +3124,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2665500</v>
+        <v>2660300</v>
       </c>
       <c r="E76" s="3">
-        <v>2681300</v>
+        <v>2676100</v>
       </c>
       <c r="F76" s="3">
-        <v>1061500</v>
+        <v>1059400</v>
       </c>
       <c r="G76" s="3">
-        <v>325600</v>
+        <v>325000</v>
       </c>
       <c r="H76" s="3">
         <v>-19200</v>
@@ -3246,13 +3246,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>374000</v>
+        <v>373200</v>
       </c>
       <c r="E81" s="3">
-        <v>359100</v>
+        <v>358400</v>
       </c>
       <c r="F81" s="3">
-        <v>169400</v>
+        <v>169000</v>
       </c>
       <c r="G81" s="3">
         <v>18300</v>
@@ -3264,7 +3264,7 @@
         <v>-7100</v>
       </c>
       <c r="J81" s="3">
-        <v>-14900</v>
+        <v>-14800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3305,7 +3305,7 @@
         <v>7000</v>
       </c>
       <c r="E83" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F83" s="3">
         <v>3500</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>444000</v>
+        <v>443100</v>
       </c>
       <c r="E89" s="3">
-        <v>768100</v>
+        <v>766600</v>
       </c>
       <c r="F89" s="3">
-        <v>2613800</v>
+        <v>2608600</v>
       </c>
       <c r="G89" s="3">
-        <v>251600</v>
+        <v>251100</v>
       </c>
       <c r="H89" s="3">
-        <v>571200</v>
+        <v>570000</v>
       </c>
       <c r="I89" s="3">
-        <v>237100</v>
+        <v>236600</v>
       </c>
       <c r="J89" s="3">
-        <v>178600</v>
+        <v>178200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,7 +3592,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="E91" s="3">
         <v>-9000</v>
@@ -3712,13 +3712,13 @@
         <v>12000</v>
       </c>
       <c r="E94" s="3">
-        <v>-123100</v>
+        <v>-122900</v>
       </c>
       <c r="F94" s="3">
-        <v>-31200</v>
+        <v>-31100</v>
       </c>
       <c r="G94" s="3">
-        <v>-20500</v>
+        <v>-20400</v>
       </c>
       <c r="H94" s="3">
         <v>-10000</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-895600</v>
+        <v>-893900</v>
       </c>
       <c r="E100" s="3">
-        <v>1348500</v>
+        <v>1345900</v>
       </c>
       <c r="F100" s="3">
-        <v>1074100</v>
+        <v>1072000</v>
       </c>
       <c r="G100" s="3">
-        <v>147100</v>
+        <v>146900</v>
       </c>
       <c r="H100" s="3">
         <v>4600</v>
       </c>
       <c r="I100" s="3">
-        <v>275500</v>
+        <v>274900</v>
       </c>
       <c r="J100" s="3">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3960,10 +3960,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17300</v>
+        <v>-17200</v>
       </c>
       <c r="E101" s="3">
-        <v>21400</v>
+        <v>21300</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-456900</v>
+        <v>-456000</v>
       </c>
       <c r="E102" s="3">
-        <v>2014900</v>
+        <v>2011000</v>
       </c>
       <c r="F102" s="3">
-        <v>3656600</v>
+        <v>3649400</v>
       </c>
       <c r="G102" s="3">
-        <v>372600</v>
+        <v>371900</v>
       </c>
       <c r="H102" s="3">
-        <v>566700</v>
+        <v>565600</v>
       </c>
       <c r="I102" s="3">
-        <v>514600</v>
+        <v>513600</v>
       </c>
       <c r="J102" s="3">
-        <v>196700</v>
+        <v>196300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUTU_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>970900</v>
+        <v>976000</v>
       </c>
       <c r="E8" s="3">
-        <v>907300</v>
+        <v>912100</v>
       </c>
       <c r="F8" s="3">
-        <v>422200</v>
+        <v>424400</v>
       </c>
       <c r="G8" s="3">
-        <v>135400</v>
+        <v>136100</v>
       </c>
       <c r="H8" s="3">
-        <v>103500</v>
+        <v>104000</v>
       </c>
       <c r="I8" s="3">
-        <v>39700</v>
+        <v>40000</v>
       </c>
       <c r="J8" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>127000</v>
+        <v>127700</v>
       </c>
       <c r="E9" s="3">
-        <v>153800</v>
+        <v>154600</v>
       </c>
       <c r="F9" s="3">
-        <v>88700</v>
+        <v>89200</v>
       </c>
       <c r="G9" s="3">
-        <v>35900</v>
+        <v>36100</v>
       </c>
       <c r="H9" s="3">
-        <v>31800</v>
+        <v>32000</v>
       </c>
       <c r="I9" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="J9" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>843900</v>
+        <v>848300</v>
       </c>
       <c r="E10" s="3">
-        <v>753500</v>
+        <v>757500</v>
       </c>
       <c r="F10" s="3">
-        <v>333400</v>
+        <v>335200</v>
       </c>
       <c r="G10" s="3">
-        <v>99400</v>
+        <v>100000</v>
       </c>
       <c r="H10" s="3">
-        <v>71600</v>
+        <v>72000</v>
       </c>
       <c r="I10" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="J10" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -858,19 +858,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>155800</v>
+        <v>156700</v>
       </c>
       <c r="E12" s="3">
-        <v>102700</v>
+        <v>103200</v>
       </c>
       <c r="F12" s="3">
-        <v>65500</v>
+        <v>65800</v>
       </c>
       <c r="G12" s="3">
-        <v>33500</v>
+        <v>33600</v>
       </c>
       <c r="H12" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="I12" s="3">
         <v>12200</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>515800</v>
+        <v>518500</v>
       </c>
       <c r="E17" s="3">
-        <v>501500</v>
+        <v>504100</v>
       </c>
       <c r="F17" s="3">
-        <v>235000</v>
+        <v>236200</v>
       </c>
       <c r="G17" s="3">
-        <v>111400</v>
+        <v>112000</v>
       </c>
       <c r="H17" s="3">
-        <v>76800</v>
+        <v>77200</v>
       </c>
       <c r="I17" s="3">
-        <v>38700</v>
+        <v>38900</v>
       </c>
       <c r="J17" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>455100</v>
+        <v>457500</v>
       </c>
       <c r="E18" s="3">
-        <v>405900</v>
+        <v>408000</v>
       </c>
       <c r="F18" s="3">
-        <v>187200</v>
+        <v>188200</v>
       </c>
       <c r="G18" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="H18" s="3">
-        <v>26600</v>
+        <v>26800</v>
       </c>
       <c r="I18" s="3">
         <v>1100</v>
       </c>
       <c r="J18" s="3">
-        <v>-14100</v>
+        <v>-14200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26800</v>
+        <v>-27000</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>435300</v>
+        <v>437500</v>
       </c>
       <c r="E21" s="3">
-        <v>410800</v>
+        <v>413000</v>
       </c>
       <c r="F21" s="3">
-        <v>188400</v>
+        <v>189400</v>
       </c>
       <c r="G21" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="H21" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="I21" s="3">
         <v>1000</v>
       </c>
       <c r="J21" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>428300</v>
+        <v>430500</v>
       </c>
       <c r="E23" s="3">
-        <v>406200</v>
+        <v>408300</v>
       </c>
       <c r="F23" s="3">
-        <v>184900</v>
+        <v>185900</v>
       </c>
       <c r="G23" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="H23" s="3">
-        <v>25600</v>
+        <v>25700</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
       </c>
       <c r="J23" s="3">
-        <v>-14200</v>
+        <v>-14300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,19 +1279,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52800</v>
+        <v>53100</v>
       </c>
       <c r="E24" s="3">
-        <v>47800</v>
+        <v>48100</v>
       </c>
       <c r="F24" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="G24" s="3">
         <v>1600</v>
       </c>
       <c r="H24" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="I24" s="3">
         <v>1500</v>
@@ -1357,19 +1357,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>375500</v>
+        <v>377500</v>
       </c>
       <c r="E26" s="3">
-        <v>358400</v>
+        <v>360200</v>
       </c>
       <c r="F26" s="3">
-        <v>169000</v>
+        <v>169900</v>
       </c>
       <c r="G26" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="H26" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="I26" s="3">
         <v>-1000</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>373200</v>
+        <v>375200</v>
       </c>
       <c r="E27" s="3">
-        <v>358400</v>
+        <v>360200</v>
       </c>
       <c r="F27" s="3">
-        <v>169000</v>
+        <v>169900</v>
       </c>
       <c r="G27" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="H27" s="3">
         <v>4700</v>
       </c>
       <c r="I27" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="J27" s="3">
-        <v>-14800</v>
+        <v>-14900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,7 +1591,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>373200</v>
+        <v>375200</v>
       </c>
       <c r="E33" s="3">
-        <v>358400</v>
+        <v>360200</v>
       </c>
       <c r="F33" s="3">
-        <v>169000</v>
+        <v>169900</v>
       </c>
       <c r="G33" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="H33" s="3">
         <v>4700</v>
       </c>
       <c r="I33" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="J33" s="3">
-        <v>-14800</v>
+        <v>-14900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>373200</v>
+        <v>375200</v>
       </c>
       <c r="E35" s="3">
-        <v>358400</v>
+        <v>360200</v>
       </c>
       <c r="F35" s="3">
-        <v>169000</v>
+        <v>169900</v>
       </c>
       <c r="G35" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="H35" s="3">
         <v>4700</v>
       </c>
       <c r="I35" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="J35" s="3">
-        <v>-14800</v>
+        <v>-14900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7104700</v>
+        <v>7142000</v>
       </c>
       <c r="E41" s="3">
-        <v>7560600</v>
+        <v>7600300</v>
       </c>
       <c r="F41" s="3">
-        <v>5549900</v>
+        <v>5579100</v>
       </c>
       <c r="G41" s="3">
-        <v>1900500</v>
+        <v>1910500</v>
       </c>
       <c r="H41" s="3">
-        <v>1528600</v>
+        <v>1536600</v>
       </c>
       <c r="I41" s="3">
-        <v>963000</v>
+        <v>968100</v>
       </c>
       <c r="J41" s="3">
-        <v>449400</v>
+        <v>451800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,13 +1864,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>90900</v>
+        <v>91400</v>
       </c>
       <c r="E42" s="3">
-        <v>162700</v>
+        <v>163600</v>
       </c>
       <c r="F42" s="3">
-        <v>38300</v>
+        <v>38500</v>
       </c>
       <c r="G42" s="3">
         <v>12000</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4657500</v>
+        <v>4682000</v>
       </c>
       <c r="E43" s="3">
-        <v>5108700</v>
+        <v>5135500</v>
       </c>
       <c r="F43" s="3">
-        <v>1034600</v>
+        <v>1040100</v>
       </c>
       <c r="G43" s="3">
-        <v>236700</v>
+        <v>237900</v>
       </c>
       <c r="H43" s="3">
-        <v>106700</v>
+        <v>107300</v>
       </c>
       <c r="I43" s="3">
-        <v>51000</v>
+        <v>51300</v>
       </c>
       <c r="J43" s="3">
-        <v>103800</v>
+        <v>104400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,10 +1981,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="E45" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="F45" s="3">
         <v>1500</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11867600</v>
+        <v>11929900</v>
       </c>
       <c r="E46" s="3">
-        <v>12841600</v>
+        <v>12909000</v>
       </c>
       <c r="F46" s="3">
-        <v>6624200</v>
+        <v>6659000</v>
       </c>
       <c r="G46" s="3">
-        <v>2150700</v>
+        <v>2162000</v>
       </c>
       <c r="H46" s="3">
-        <v>1644000</v>
+        <v>1652600</v>
       </c>
       <c r="I46" s="3">
-        <v>1014500</v>
+        <v>1019800</v>
       </c>
       <c r="J46" s="3">
-        <v>553800</v>
+        <v>556800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="E47" s="3">
         <v>3000</v>
       </c>
       <c r="F47" s="3">
-        <v>2400600</v>
+        <v>2413200</v>
       </c>
       <c r="G47" s="3">
-        <v>534900</v>
+        <v>537700</v>
       </c>
       <c r="H47" s="3">
-        <v>393600</v>
+        <v>395700</v>
       </c>
       <c r="I47" s="3">
-        <v>370800</v>
+        <v>372800</v>
       </c>
       <c r="J47" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,16 +2098,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>43700</v>
+        <v>43900</v>
       </c>
       <c r="E48" s="3">
-        <v>53500</v>
+        <v>53800</v>
       </c>
       <c r="F48" s="3">
-        <v>40400</v>
+        <v>40700</v>
       </c>
       <c r="G48" s="3">
-        <v>35600</v>
+        <v>35800</v>
       </c>
       <c r="H48" s="3">
         <v>2900</v>
@@ -2116,7 +2116,7 @@
         <v>1700</v>
       </c>
       <c r="J48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="E49" s="3">
         <v>2200</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>97500</v>
+        <v>98100</v>
       </c>
       <c r="E52" s="3">
-        <v>47900</v>
+        <v>48200</v>
       </c>
       <c r="F52" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="G52" s="3">
         <v>6700</v>
       </c>
       <c r="H52" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I52" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J52" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12051000</v>
+        <v>12114300</v>
       </c>
       <c r="E54" s="3">
-        <v>12948200</v>
+        <v>13016200</v>
       </c>
       <c r="F54" s="3">
-        <v>9097000</v>
+        <v>9144800</v>
       </c>
       <c r="G54" s="3">
-        <v>2728900</v>
+        <v>2743300</v>
       </c>
       <c r="H54" s="3">
-        <v>2048300</v>
+        <v>2059100</v>
       </c>
       <c r="I54" s="3">
-        <v>1393000</v>
+        <v>1400300</v>
       </c>
       <c r="J54" s="3">
-        <v>576100</v>
+        <v>579100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8808600</v>
+        <v>8854900</v>
       </c>
       <c r="E57" s="3">
-        <v>8559200</v>
+        <v>8604200</v>
       </c>
       <c r="F57" s="3">
-        <v>6493400</v>
+        <v>6527500</v>
       </c>
       <c r="G57" s="3">
-        <v>2158000</v>
+        <v>2169400</v>
       </c>
       <c r="H57" s="3">
-        <v>1686500</v>
+        <v>1695400</v>
       </c>
       <c r="I57" s="3">
-        <v>1065200</v>
+        <v>1070800</v>
       </c>
       <c r="J57" s="3">
-        <v>529200</v>
+        <v>531900</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>316300</v>
+        <v>318000</v>
       </c>
       <c r="E58" s="3">
-        <v>1380400</v>
+        <v>1387700</v>
       </c>
       <c r="F58" s="3">
-        <v>1394500</v>
+        <v>1401900</v>
       </c>
       <c r="G58" s="3">
-        <v>187300</v>
+        <v>188300</v>
       </c>
       <c r="H58" s="3">
-        <v>201000</v>
+        <v>202100</v>
       </c>
       <c r="I58" s="3">
-        <v>196700</v>
+        <v>197700</v>
       </c>
       <c r="J58" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>251100</v>
+        <v>252400</v>
       </c>
       <c r="E59" s="3">
-        <v>310200</v>
+        <v>311800</v>
       </c>
       <c r="F59" s="3">
-        <v>121300</v>
+        <v>121900</v>
       </c>
       <c r="G59" s="3">
-        <v>36500</v>
+        <v>36700</v>
       </c>
       <c r="H59" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="I59" s="3">
         <v>9900</v>
       </c>
       <c r="J59" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9376000</v>
+        <v>9425300</v>
       </c>
       <c r="E60" s="3">
-        <v>10249800</v>
+        <v>10303700</v>
       </c>
       <c r="F60" s="3">
-        <v>8009300</v>
+        <v>8051300</v>
       </c>
       <c r="G60" s="3">
-        <v>2381900</v>
+        <v>2394400</v>
       </c>
       <c r="H60" s="3">
-        <v>1908000</v>
+        <v>1918100</v>
       </c>
       <c r="I60" s="3">
-        <v>1271800</v>
+        <v>1278500</v>
       </c>
       <c r="J60" s="3">
-        <v>554300</v>
+        <v>557200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2600,16 +2600,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="E62" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="F62" s="3">
-        <v>28300</v>
+        <v>28500</v>
       </c>
       <c r="G62" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9390700</v>
+        <v>9440100</v>
       </c>
       <c r="E66" s="3">
-        <v>10272100</v>
+        <v>10326100</v>
       </c>
       <c r="F66" s="3">
-        <v>8037600</v>
+        <v>8079800</v>
       </c>
       <c r="G66" s="3">
-        <v>2403900</v>
+        <v>2416600</v>
       </c>
       <c r="H66" s="3">
-        <v>1908000</v>
+        <v>1918100</v>
       </c>
       <c r="I66" s="3">
-        <v>1271800</v>
+        <v>1278500</v>
       </c>
       <c r="J66" s="3">
-        <v>558300</v>
+        <v>561300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>159500</v>
+        <v>160300</v>
       </c>
       <c r="I70" s="3">
-        <v>150900</v>
+        <v>151700</v>
       </c>
       <c r="J70" s="3">
-        <v>42000</v>
+        <v>42200</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>902800</v>
+        <v>907500</v>
       </c>
       <c r="E72" s="3">
-        <v>529500</v>
+        <v>532300</v>
       </c>
       <c r="F72" s="3">
-        <v>171200</v>
+        <v>172100</v>
       </c>
       <c r="G72" s="3">
         <v>2100</v>
       </c>
       <c r="H72" s="3">
-        <v>-19000</v>
+        <v>-19100</v>
       </c>
       <c r="I72" s="3">
-        <v>-29400</v>
+        <v>-29600</v>
       </c>
       <c r="J72" s="3">
-        <v>-23900</v>
+        <v>-24000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2660300</v>
+        <v>2674200</v>
       </c>
       <c r="E76" s="3">
-        <v>2676100</v>
+        <v>2690100</v>
       </c>
       <c r="F76" s="3">
-        <v>1059400</v>
+        <v>1065000</v>
       </c>
       <c r="G76" s="3">
-        <v>325000</v>
+        <v>326700</v>
       </c>
       <c r="H76" s="3">
-        <v>-19200</v>
+        <v>-19300</v>
       </c>
       <c r="I76" s="3">
-        <v>-29700</v>
+        <v>-29800</v>
       </c>
       <c r="J76" s="3">
-        <v>-24300</v>
+        <v>-24400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>373200</v>
+        <v>375200</v>
       </c>
       <c r="E81" s="3">
-        <v>358400</v>
+        <v>360200</v>
       </c>
       <c r="F81" s="3">
-        <v>169000</v>
+        <v>169900</v>
       </c>
       <c r="G81" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="H81" s="3">
         <v>4700</v>
       </c>
       <c r="I81" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="J81" s="3">
-        <v>-14800</v>
+        <v>-14900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3305,7 +3305,7 @@
         <v>7000</v>
       </c>
       <c r="E83" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F83" s="3">
         <v>3500</v>
@@ -3317,7 +3317,7 @@
         <v>1100</v>
       </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>443100</v>
+        <v>445500</v>
       </c>
       <c r="E89" s="3">
-        <v>766600</v>
+        <v>770700</v>
       </c>
       <c r="F89" s="3">
-        <v>2608600</v>
+        <v>2622300</v>
       </c>
       <c r="G89" s="3">
-        <v>251100</v>
+        <v>252500</v>
       </c>
       <c r="H89" s="3">
-        <v>570000</v>
+        <v>573000</v>
       </c>
       <c r="I89" s="3">
-        <v>236600</v>
+        <v>237800</v>
       </c>
       <c r="J89" s="3">
-        <v>178200</v>
+        <v>179200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,7 +3592,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="E91" s="3">
         <v>-9000</v>
@@ -3601,13 +3601,13 @@
         <v>-5700</v>
       </c>
       <c r="G91" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="H91" s="3">
         <v>-2400</v>
       </c>
       <c r="I91" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
@@ -3712,13 +3712,13 @@
         <v>12000</v>
       </c>
       <c r="E94" s="3">
-        <v>-122900</v>
+        <v>-123500</v>
       </c>
       <c r="F94" s="3">
-        <v>-31100</v>
+        <v>-31300</v>
       </c>
       <c r="G94" s="3">
-        <v>-20400</v>
+        <v>-20500</v>
       </c>
       <c r="H94" s="3">
         <v>-10000</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-893900</v>
+        <v>-898600</v>
       </c>
       <c r="E100" s="3">
-        <v>1345900</v>
+        <v>1352900</v>
       </c>
       <c r="F100" s="3">
-        <v>1072000</v>
+        <v>1077700</v>
       </c>
       <c r="G100" s="3">
-        <v>146900</v>
+        <v>147600</v>
       </c>
       <c r="H100" s="3">
         <v>4600</v>
       </c>
       <c r="I100" s="3">
-        <v>274900</v>
+        <v>276400</v>
       </c>
       <c r="J100" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3960,10 +3960,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="E101" s="3">
-        <v>21300</v>
+        <v>21400</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-456000</v>
+        <v>-458400</v>
       </c>
       <c r="E102" s="3">
-        <v>2011000</v>
+        <v>2021500</v>
       </c>
       <c r="F102" s="3">
-        <v>3649400</v>
+        <v>3668600</v>
       </c>
       <c r="G102" s="3">
-        <v>371900</v>
+        <v>373800</v>
       </c>
       <c r="H102" s="3">
-        <v>565600</v>
+        <v>568600</v>
       </c>
       <c r="I102" s="3">
-        <v>513600</v>
+        <v>516300</v>
       </c>
       <c r="J102" s="3">
-        <v>196300</v>
+        <v>197300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
